--- a/design/docs/Design Excel.xlsx
+++ b/design/docs/Design Excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\PuppyDRyuki\Documents\GitHub\Web NC\dat-bao-truc-tuyen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\PuppyDRyuki\Documents\GitHub\Web NC\design\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="110">
   <si>
     <t>hình nền</t>
   </si>
@@ -360,6 +360,12 @@
   </si>
   <si>
     <t>chưa làm</t>
+  </si>
+  <si>
+    <t>Số lượng</t>
+  </si>
+  <si>
+    <t>tờ</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1250,21 +1256,66 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1307,49 +1358,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1394,18 +1412,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1478,119 +1484,131 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1888,157 +1906,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L1" s="79" t="s">
+      <c r="L1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="80"/>
-      <c r="N1" s="83" t="s">
+      <c r="M1" s="97"/>
+      <c r="N1" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="78" t="s">
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="78"/>
+      <c r="S1" s="95"/>
     </row>
     <row r="2" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="93" t="s">
+      <c r="D2" s="101"/>
+      <c r="E2" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
     </row>
     <row r="3" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
     </row>
     <row r="4" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="87"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
     </row>
     <row r="5" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="87"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
     </row>
     <row r="6" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="87"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="94"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
+      <c r="P6" s="109"/>
+      <c r="Q6" s="109"/>
+      <c r="R6" s="109"/>
+      <c r="S6" s="109"/>
     </row>
     <row r="7" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="87"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="94"/>
-      <c r="S7" s="94"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="109"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="109"/>
+      <c r="P7" s="109"/>
+      <c r="Q7" s="109"/>
+      <c r="R7" s="109"/>
+      <c r="S7" s="109"/>
     </row>
     <row r="8" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="89"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="94"/>
-      <c r="S8" s="94"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="109"/>
+      <c r="Q8" s="109"/>
+      <c r="R8" s="109"/>
+      <c r="S8" s="109"/>
     </row>
     <row r="11" spans="3:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="23" t="s">
@@ -2047,25 +2065,25 @@
       <c r="D11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="91" t="s">
+      <c r="E11" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="92"/>
-      <c r="G11" s="91" t="s">
+      <c r="F11" s="107"/>
+      <c r="G11" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="92"/>
-      <c r="I11" s="95" t="s">
+      <c r="H11" s="107"/>
+      <c r="I11" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="95"/>
-      <c r="N11" s="111" t="s">
+      <c r="J11" s="110"/>
+      <c r="N11" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="111"/>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="111"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="81"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="81"/>
       <c r="S11" s="27" t="s">
         <v>24</v>
       </c>
@@ -2076,11 +2094,11 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C13" s="96" t="s">
+      <c r="C13" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -2097,9 +2115,9 @@
       <c r="S13" s="9"/>
     </row>
     <row r="14" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="10"/>
@@ -2116,8 +2134,8 @@
       <c r="S14" s="11"/>
     </row>
     <row r="15" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
       <c r="E15" s="10"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
@@ -2135,216 +2153,216 @@
       <c r="S15" s="11"/>
     </row>
     <row r="16" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C16" s="81" t="s">
+      <c r="C16" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="81"/>
+      <c r="D16" s="78"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="81" t="s">
+      <c r="F16" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="K16" s="81" t="s">
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="K16" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="81"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
       <c r="O16" s="10"/>
-      <c r="P16" s="81" t="s">
+      <c r="P16" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="Q16" s="81"/>
-      <c r="R16" s="81"/>
-      <c r="S16" s="81"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="78"/>
+      <c r="S16" s="78"/>
     </row>
     <row r="17" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="78"/>
       <c r="O17" s="10"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="81"/>
-      <c r="S17" s="81"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="78"/>
+      <c r="S17" s="78"/>
     </row>
     <row r="18" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
       <c r="O18" s="10"/>
-      <c r="P18" s="81"/>
-      <c r="Q18" s="81"/>
-      <c r="R18" s="81"/>
-      <c r="S18" s="81"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="78"/>
+      <c r="R18" s="78"/>
+      <c r="S18" s="78"/>
     </row>
     <row r="19" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="78"/>
       <c r="O19" s="10"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="81"/>
-      <c r="R19" s="81"/>
-      <c r="S19" s="81"/>
+      <c r="P19" s="78"/>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="78"/>
+      <c r="S19" s="78"/>
     </row>
     <row r="20" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
       <c r="E20" s="10"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="81"/>
-      <c r="N20" s="81"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
       <c r="O20" s="10"/>
-      <c r="P20" s="81"/>
-      <c r="Q20" s="81"/>
-      <c r="R20" s="81"/>
-      <c r="S20" s="81"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="78"/>
+      <c r="S20" s="78"/>
     </row>
     <row r="21" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="K21" s="81"/>
-      <c r="L21" s="81"/>
-      <c r="M21" s="81"/>
-      <c r="N21" s="81"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="78"/>
       <c r="O21" s="10"/>
-      <c r="P21" s="81"/>
-      <c r="Q21" s="81"/>
-      <c r="R21" s="81"/>
-      <c r="S21" s="81"/>
+      <c r="P21" s="78"/>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="78"/>
+      <c r="S21" s="78"/>
     </row>
     <row r="22" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
       <c r="E22" s="10"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="K22" s="81"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="81"/>
-      <c r="N22" s="81"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="78"/>
       <c r="O22" s="10"/>
-      <c r="P22" s="81"/>
-      <c r="Q22" s="81"/>
-      <c r="R22" s="81"/>
-      <c r="S22" s="81"/>
+      <c r="P22" s="78"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="78"/>
+      <c r="S22" s="78"/>
     </row>
     <row r="23" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C23" s="82" t="s">
+      <c r="C23" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="82"/>
+      <c r="D23" s="79"/>
       <c r="E23" s="10"/>
-      <c r="F23" s="82" t="s">
+      <c r="F23" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="K23" s="82" t="s">
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="K23" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="L23" s="82"/>
-      <c r="M23" s="82"/>
-      <c r="N23" s="82"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="79"/>
       <c r="O23" s="10"/>
-      <c r="P23" s="82" t="s">
+      <c r="P23" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="Q23" s="82"/>
-      <c r="R23" s="82"/>
-      <c r="S23" s="82"/>
+      <c r="Q23" s="79"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="79"/>
     </row>
     <row r="24" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C24" s="82" t="s">
+      <c r="C24" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="82"/>
+      <c r="D24" s="79"/>
       <c r="E24" s="10"/>
-      <c r="F24" s="82" t="s">
+      <c r="F24" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="K24" s="82" t="s">
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="K24" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="82"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
       <c r="O24" s="10"/>
-      <c r="P24" s="82" t="s">
+      <c r="P24" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="Q24" s="82"/>
-      <c r="R24" s="82"/>
-      <c r="S24" s="82"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="79"/>
+      <c r="S24" s="79"/>
     </row>
     <row r="25" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C25" s="97" t="s">
+      <c r="C25" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="97"/>
+      <c r="D25" s="80"/>
       <c r="E25" s="10"/>
-      <c r="F25" s="97" t="s">
+      <c r="F25" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="G25" s="97"/>
-      <c r="H25" s="97"/>
-      <c r="I25" s="97"/>
-      <c r="K25" s="97" t="s">
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+      <c r="K25" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="L25" s="97"/>
-      <c r="M25" s="97"/>
-      <c r="N25" s="97"/>
+      <c r="L25" s="80"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="80"/>
       <c r="O25" s="10"/>
-      <c r="P25" s="97" t="s">
+      <c r="P25" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="Q25" s="97"/>
-      <c r="R25" s="97"/>
-      <c r="S25" s="97"/>
+      <c r="Q25" s="80"/>
+      <c r="R25" s="80"/>
+      <c r="S25" s="80"/>
     </row>
     <row r="26" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C26" s="12"/>
@@ -2364,216 +2382,216 @@
       <c r="S26" s="10"/>
     </row>
     <row r="27" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C27" s="81" t="s">
+      <c r="C27" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="81"/>
+      <c r="D27" s="78"/>
       <c r="E27" s="10"/>
-      <c r="F27" s="81" t="s">
+      <c r="F27" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="K27" s="81" t="s">
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="K27" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="L27" s="81"/>
-      <c r="M27" s="81"/>
-      <c r="N27" s="81"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="78"/>
       <c r="O27" s="10"/>
-      <c r="P27" s="81" t="s">
+      <c r="P27" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="Q27" s="81"/>
-      <c r="R27" s="81"/>
-      <c r="S27" s="81"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="78"/>
+      <c r="S27" s="78"/>
     </row>
     <row r="28" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
       <c r="E28" s="10"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="81"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="78"/>
       <c r="O28" s="10"/>
-      <c r="P28" s="81"/>
-      <c r="Q28" s="81"/>
-      <c r="R28" s="81"/>
-      <c r="S28" s="81"/>
+      <c r="P28" s="78"/>
+      <c r="Q28" s="78"/>
+      <c r="R28" s="78"/>
+      <c r="S28" s="78"/>
     </row>
     <row r="29" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
       <c r="E29" s="10"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="81"/>
-      <c r="N29" s="81"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="78"/>
       <c r="O29" s="10"/>
-      <c r="P29" s="81"/>
-      <c r="Q29" s="81"/>
-      <c r="R29" s="81"/>
-      <c r="S29" s="81"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="78"/>
+      <c r="S29" s="78"/>
     </row>
     <row r="30" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C30" s="81"/>
-      <c r="D30" s="81"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="78"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="81"/>
-      <c r="K30" s="81"/>
-      <c r="L30" s="81"/>
-      <c r="M30" s="81"/>
-      <c r="N30" s="81"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="78"/>
+      <c r="N30" s="78"/>
       <c r="O30" s="10"/>
-      <c r="P30" s="81"/>
-      <c r="Q30" s="81"/>
-      <c r="R30" s="81"/>
-      <c r="S30" s="81"/>
+      <c r="P30" s="78"/>
+      <c r="Q30" s="78"/>
+      <c r="R30" s="78"/>
+      <c r="S30" s="78"/>
     </row>
     <row r="31" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C31" s="81"/>
-      <c r="D31" s="81"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="78"/>
       <c r="E31" s="10"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="81"/>
-      <c r="K31" s="81"/>
-      <c r="L31" s="81"/>
-      <c r="M31" s="81"/>
-      <c r="N31" s="81"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="78"/>
+      <c r="N31" s="78"/>
       <c r="O31" s="10"/>
-      <c r="P31" s="81"/>
-      <c r="Q31" s="81"/>
-      <c r="R31" s="81"/>
-      <c r="S31" s="81"/>
+      <c r="P31" s="78"/>
+      <c r="Q31" s="78"/>
+      <c r="R31" s="78"/>
+      <c r="S31" s="78"/>
     </row>
     <row r="32" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C32" s="81"/>
-      <c r="D32" s="81"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="78"/>
       <c r="E32" s="10"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="81"/>
-      <c r="H32" s="81"/>
-      <c r="I32" s="81"/>
-      <c r="K32" s="81"/>
-      <c r="L32" s="81"/>
-      <c r="M32" s="81"/>
-      <c r="N32" s="81"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="78"/>
+      <c r="N32" s="78"/>
       <c r="O32" s="10"/>
-      <c r="P32" s="81"/>
-      <c r="Q32" s="81"/>
-      <c r="R32" s="81"/>
-      <c r="S32" s="81"/>
+      <c r="P32" s="78"/>
+      <c r="Q32" s="78"/>
+      <c r="R32" s="78"/>
+      <c r="S32" s="78"/>
     </row>
     <row r="33" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C33" s="81"/>
-      <c r="D33" s="81"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
       <c r="E33" s="10"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="81"/>
-      <c r="K33" s="81"/>
-      <c r="L33" s="81"/>
-      <c r="M33" s="81"/>
-      <c r="N33" s="81"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="78"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="78"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="78"/>
+      <c r="M33" s="78"/>
+      <c r="N33" s="78"/>
       <c r="O33" s="10"/>
-      <c r="P33" s="81"/>
-      <c r="Q33" s="81"/>
-      <c r="R33" s="81"/>
-      <c r="S33" s="81"/>
+      <c r="P33" s="78"/>
+      <c r="Q33" s="78"/>
+      <c r="R33" s="78"/>
+      <c r="S33" s="78"/>
     </row>
     <row r="34" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C34" s="82" t="s">
+      <c r="C34" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="82"/>
+      <c r="D34" s="79"/>
       <c r="E34" s="10"/>
-      <c r="F34" s="82" t="s">
+      <c r="F34" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="G34" s="82"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="82"/>
-      <c r="K34" s="82" t="s">
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="79"/>
+      <c r="K34" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="L34" s="82"/>
-      <c r="M34" s="82"/>
-      <c r="N34" s="82"/>
+      <c r="L34" s="79"/>
+      <c r="M34" s="79"/>
+      <c r="N34" s="79"/>
       <c r="O34" s="10"/>
-      <c r="P34" s="82" t="s">
+      <c r="P34" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="Q34" s="82"/>
-      <c r="R34" s="82"/>
-      <c r="S34" s="82"/>
+      <c r="Q34" s="79"/>
+      <c r="R34" s="79"/>
+      <c r="S34" s="79"/>
     </row>
     <row r="35" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C35" s="82" t="s">
+      <c r="C35" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="82"/>
+      <c r="D35" s="79"/>
       <c r="E35" s="10"/>
-      <c r="F35" s="82" t="s">
+      <c r="F35" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="K35" s="82" t="s">
+      <c r="G35" s="79"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="79"/>
+      <c r="K35" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
+      <c r="L35" s="79"/>
+      <c r="M35" s="79"/>
+      <c r="N35" s="79"/>
       <c r="O35" s="10"/>
-      <c r="P35" s="82" t="s">
+      <c r="P35" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="Q35" s="82"/>
-      <c r="R35" s="82"/>
-      <c r="S35" s="82"/>
+      <c r="Q35" s="79"/>
+      <c r="R35" s="79"/>
+      <c r="S35" s="79"/>
     </row>
     <row r="36" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C36" s="97" t="s">
+      <c r="C36" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="97"/>
+      <c r="D36" s="80"/>
       <c r="E36" s="10"/>
-      <c r="F36" s="97" t="s">
+      <c r="F36" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="G36" s="97"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="97"/>
-      <c r="K36" s="97" t="s">
+      <c r="G36" s="80"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="80"/>
+      <c r="K36" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="L36" s="97"/>
-      <c r="M36" s="97"/>
-      <c r="N36" s="97"/>
+      <c r="L36" s="80"/>
+      <c r="M36" s="80"/>
+      <c r="N36" s="80"/>
       <c r="O36" s="10"/>
-      <c r="P36" s="97" t="s">
+      <c r="P36" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="Q36" s="97"/>
-      <c r="R36" s="97"/>
-      <c r="S36" s="97"/>
+      <c r="Q36" s="80"/>
+      <c r="R36" s="80"/>
+      <c r="S36" s="80"/>
     </row>
     <row r="37" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C37" s="12"/>
@@ -2701,15 +2719,15 @@
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
-      <c r="G44" s="98" t="s">
+      <c r="G44" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="H44" s="98"/>
-      <c r="I44" s="98"/>
-      <c r="J44" s="98"/>
-      <c r="K44" s="98"/>
-      <c r="L44" s="98"/>
-      <c r="M44" s="98"/>
+      <c r="H44" s="82"/>
+      <c r="I44" s="82"/>
+      <c r="J44" s="82"/>
+      <c r="K44" s="82"/>
+      <c r="L44" s="82"/>
+      <c r="M44" s="82"/>
       <c r="N44" s="16"/>
       <c r="O44" s="16"/>
       <c r="P44" s="16"/>
@@ -2718,19 +2736,19 @@
       <c r="S44" s="17"/>
     </row>
     <row r="45" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="107" t="s">
+      <c r="C45" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="108"/>
-      <c r="E45" s="108"/>
-      <c r="F45" s="108"/>
-      <c r="G45" s="99"/>
-      <c r="H45" s="99"/>
-      <c r="I45" s="99"/>
-      <c r="J45" s="99"/>
-      <c r="K45" s="99"/>
-      <c r="L45" s="99"/>
-      <c r="M45" s="99"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="92"/>
+      <c r="F45" s="92"/>
+      <c r="G45" s="83"/>
+      <c r="H45" s="83"/>
+      <c r="I45" s="83"/>
+      <c r="J45" s="83"/>
+      <c r="K45" s="83"/>
+      <c r="L45" s="83"/>
+      <c r="M45" s="83"/>
       <c r="N45" s="18"/>
       <c r="O45" s="18"/>
       <c r="P45" s="18"/>
@@ -2739,64 +2757,64 @@
       <c r="S45" s="19"/>
     </row>
     <row r="46" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="109"/>
-      <c r="D46" s="108"/>
-      <c r="E46" s="108"/>
-      <c r="F46" s="108"/>
-      <c r="G46" s="99"/>
-      <c r="H46" s="99"/>
-      <c r="I46" s="99"/>
-      <c r="J46" s="99"/>
-      <c r="K46" s="99"/>
-      <c r="L46" s="99"/>
-      <c r="M46" s="99"/>
+      <c r="C46" s="93"/>
+      <c r="D46" s="92"/>
+      <c r="E46" s="92"/>
+      <c r="F46" s="92"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="83"/>
+      <c r="I46" s="83"/>
+      <c r="J46" s="83"/>
+      <c r="K46" s="83"/>
+      <c r="L46" s="83"/>
+      <c r="M46" s="83"/>
       <c r="N46" s="18"/>
-      <c r="O46" s="101" t="s">
+      <c r="O46" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="P46" s="102"/>
+      <c r="P46" s="86"/>
       <c r="Q46" s="18"/>
       <c r="R46" s="19"/>
       <c r="S46" s="19"/>
     </row>
     <row r="47" spans="3:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="110" t="s">
+      <c r="C47" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="110"/>
-      <c r="E47" s="110"/>
-      <c r="F47" s="110"/>
-      <c r="G47" s="99"/>
-      <c r="H47" s="99"/>
-      <c r="I47" s="99"/>
-      <c r="J47" s="99"/>
-      <c r="K47" s="99"/>
-      <c r="L47" s="99"/>
-      <c r="M47" s="99"/>
+      <c r="D47" s="94"/>
+      <c r="E47" s="94"/>
+      <c r="F47" s="94"/>
+      <c r="G47" s="83"/>
+      <c r="H47" s="83"/>
+      <c r="I47" s="83"/>
+      <c r="J47" s="83"/>
+      <c r="K47" s="83"/>
+      <c r="L47" s="83"/>
+      <c r="M47" s="83"/>
       <c r="N47" s="18"/>
-      <c r="O47" s="103"/>
-      <c r="P47" s="104"/>
+      <c r="O47" s="87"/>
+      <c r="P47" s="88"/>
       <c r="Q47" s="18"/>
       <c r="R47" s="19"/>
       <c r="S47" s="19"/>
     </row>
     <row r="48" spans="3:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="110" t="s">
+      <c r="C48" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="110"/>
-      <c r="E48" s="110"/>
-      <c r="F48" s="110"/>
-      <c r="G48" s="99"/>
-      <c r="H48" s="99"/>
-      <c r="I48" s="99"/>
-      <c r="J48" s="99"/>
-      <c r="K48" s="99"/>
-      <c r="L48" s="99"/>
-      <c r="M48" s="99"/>
+      <c r="D48" s="94"/>
+      <c r="E48" s="94"/>
+      <c r="F48" s="94"/>
+      <c r="G48" s="83"/>
+      <c r="H48" s="83"/>
+      <c r="I48" s="83"/>
+      <c r="J48" s="83"/>
+      <c r="K48" s="83"/>
+      <c r="L48" s="83"/>
+      <c r="M48" s="83"/>
       <c r="N48" s="18"/>
-      <c r="O48" s="105"/>
-      <c r="P48" s="106"/>
+      <c r="O48" s="89"/>
+      <c r="P48" s="90"/>
       <c r="Q48" s="18"/>
       <c r="R48" s="19"/>
       <c r="S48" s="19"/>
@@ -2806,13 +2824,13 @@
       <c r="D49" s="21"/>
       <c r="E49" s="21"/>
       <c r="F49" s="21"/>
-      <c r="G49" s="100"/>
-      <c r="H49" s="100"/>
-      <c r="I49" s="100"/>
-      <c r="J49" s="100"/>
-      <c r="K49" s="100"/>
-      <c r="L49" s="100"/>
-      <c r="M49" s="100"/>
+      <c r="G49" s="84"/>
+      <c r="H49" s="84"/>
+      <c r="I49" s="84"/>
+      <c r="J49" s="84"/>
+      <c r="K49" s="84"/>
+      <c r="L49" s="84"/>
+      <c r="M49" s="84"/>
       <c r="N49" s="21"/>
       <c r="O49" s="21"/>
       <c r="P49" s="21"/>
@@ -2822,38 +2840,6 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="F16:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F27:I33"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="P35:S35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="P36:S36"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C27:D33"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="P25:S25"/>
-    <mergeCell ref="K27:N33"/>
-    <mergeCell ref="P27:S33"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="G44:M49"/>
-    <mergeCell ref="O46:P48"/>
-    <mergeCell ref="C45:F46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="P34:S34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F34:I34"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="C16:D22"/>
@@ -2870,6 +2856,38 @@
     <mergeCell ref="E2:S8"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C13:E14"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="G44:M49"/>
+    <mergeCell ref="O46:P48"/>
+    <mergeCell ref="C45:F46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="P34:S34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C27:D33"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="P25:S25"/>
+    <mergeCell ref="K27:N33"/>
+    <mergeCell ref="P27:S33"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="P36:S36"/>
+    <mergeCell ref="F16:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F27:I33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2880,8 +2898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31:R31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2894,157 +2912,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L1" s="79" t="s">
+      <c r="L1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="80"/>
-      <c r="N1" s="83" t="s">
+      <c r="M1" s="97"/>
+      <c r="N1" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="78" t="s">
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="78"/>
+      <c r="S1" s="95"/>
     </row>
     <row r="2" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="93" t="s">
+      <c r="D2" s="101"/>
+      <c r="E2" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
     </row>
     <row r="3" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
     </row>
     <row r="4" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="87"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
     </row>
     <row r="5" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="87"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
     </row>
     <row r="6" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="87"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="94"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
+      <c r="P6" s="109"/>
+      <c r="Q6" s="109"/>
+      <c r="R6" s="109"/>
+      <c r="S6" s="109"/>
     </row>
     <row r="7" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="87"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="94"/>
-      <c r="S7" s="94"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="109"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="109"/>
+      <c r="P7" s="109"/>
+      <c r="Q7" s="109"/>
+      <c r="R7" s="109"/>
+      <c r="S7" s="109"/>
     </row>
     <row r="8" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="89"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="94"/>
-      <c r="S8" s="94"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="109"/>
+      <c r="Q8" s="109"/>
+      <c r="R8" s="109"/>
+      <c r="S8" s="109"/>
     </row>
     <row r="11" spans="3:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="23" t="s">
@@ -3053,25 +3071,25 @@
       <c r="D11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="91" t="s">
+      <c r="E11" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="92"/>
-      <c r="G11" s="91" t="s">
+      <c r="F11" s="107"/>
+      <c r="G11" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="92"/>
-      <c r="I11" s="95" t="s">
+      <c r="H11" s="107"/>
+      <c r="I11" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="95"/>
-      <c r="N11" s="111" t="s">
+      <c r="J11" s="110"/>
+      <c r="N11" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="111"/>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="111"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="81"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="81"/>
       <c r="S11" s="27" t="s">
         <v>24</v>
       </c>
@@ -3101,8 +3119,8 @@
       <c r="S13" s="9"/>
     </row>
     <row r="14" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
       <c r="E14" s="10"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
@@ -3120,8 +3138,8 @@
       <c r="S14" s="11"/>
     </row>
     <row r="15" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
       <c r="E15" s="10"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
@@ -3139,34 +3157,34 @@
       <c r="S15" s="11"/>
     </row>
     <row r="16" spans="3:19" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="C16" s="117" t="s">
+      <c r="C16" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="118"/>
-      <c r="E16" s="119"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="26"/>
       <c r="G16" s="29"/>
-      <c r="H16" s="113" t="s">
+      <c r="H16" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="113"/>
-      <c r="J16" s="113"/>
-      <c r="K16" s="113"/>
-      <c r="L16" s="113"/>
-      <c r="M16" s="113"/>
-      <c r="N16" s="113"/>
-      <c r="O16" s="113"/>
-      <c r="P16" s="113"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="117"/>
+      <c r="M16" s="117"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="117"/>
+      <c r="P16" s="117"/>
       <c r="Q16" s="30"/>
-      <c r="R16" s="112" t="s">
+      <c r="R16" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="S16" s="112"/>
+      <c r="S16" s="116"/>
     </row>
     <row r="17" spans="3:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C17" s="120"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="122"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="26"/>
       <c r="G17" s="31"/>
       <c r="H17" s="26"/>
@@ -3183,9 +3201,9 @@
       <c r="S17" s="32"/>
     </row>
     <row r="18" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C18" s="120"/>
-      <c r="D18" s="121"/>
-      <c r="E18" s="122"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="126"/>
       <c r="F18" s="26"/>
       <c r="G18" s="31"/>
       <c r="H18" s="26"/>
@@ -3204,9 +3222,9 @@
       <c r="S18" s="32"/>
     </row>
     <row r="19" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C19" s="120"/>
-      <c r="D19" s="121"/>
-      <c r="E19" s="122"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="126"/>
       <c r="F19" s="26"/>
       <c r="G19" s="31"/>
       <c r="H19" s="26"/>
@@ -3223,118 +3241,118 @@
       <c r="S19" s="32"/>
     </row>
     <row r="20" spans="3:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C20" s="120"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="122"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="126"/>
       <c r="F20" s="26"/>
       <c r="G20" s="31"/>
       <c r="H20" s="26"/>
-      <c r="I20" s="116" t="s">
+      <c r="I20" s="120" t="s">
         <v>53</v>
       </c>
-      <c r="J20" s="115"/>
-      <c r="K20" s="115"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="115"/>
-      <c r="N20" s="115"/>
-      <c r="O20" s="115"/>
-      <c r="P20" s="115"/>
-      <c r="Q20" s="115"/>
+      <c r="J20" s="119"/>
+      <c r="K20" s="119"/>
+      <c r="L20" s="119"/>
+      <c r="M20" s="119"/>
+      <c r="N20" s="119"/>
+      <c r="O20" s="119"/>
+      <c r="P20" s="119"/>
+      <c r="Q20" s="119"/>
       <c r="R20" s="26"/>
       <c r="S20" s="32"/>
     </row>
     <row r="21" spans="3:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C21" s="120"/>
-      <c r="D21" s="121"/>
-      <c r="E21" s="122"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="126"/>
       <c r="F21" s="26"/>
       <c r="G21" s="31"/>
       <c r="H21" s="26"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="115"/>
-      <c r="K21" s="115"/>
-      <c r="L21" s="115"/>
-      <c r="M21" s="115"/>
-      <c r="N21" s="115"/>
-      <c r="O21" s="115"/>
-      <c r="P21" s="115"/>
-      <c r="Q21" s="115"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="119"/>
+      <c r="K21" s="119"/>
+      <c r="L21" s="119"/>
+      <c r="M21" s="119"/>
+      <c r="N21" s="119"/>
+      <c r="O21" s="119"/>
+      <c r="P21" s="119"/>
+      <c r="Q21" s="119"/>
       <c r="R21" s="26"/>
       <c r="S21" s="32"/>
     </row>
     <row r="22" spans="3:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C22" s="120"/>
-      <c r="D22" s="121"/>
-      <c r="E22" s="122"/>
+      <c r="C22" s="124"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="126"/>
       <c r="F22" s="26"/>
       <c r="G22" s="31"/>
       <c r="H22" s="26"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="115"/>
-      <c r="K22" s="115"/>
-      <c r="L22" s="115"/>
-      <c r="M22" s="115"/>
-      <c r="N22" s="115"/>
-      <c r="O22" s="115"/>
-      <c r="P22" s="115"/>
-      <c r="Q22" s="115"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="119"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="119"/>
+      <c r="M22" s="119"/>
+      <c r="N22" s="119"/>
+      <c r="O22" s="119"/>
+      <c r="P22" s="119"/>
+      <c r="Q22" s="119"/>
       <c r="R22" s="26"/>
       <c r="S22" s="32"/>
     </row>
     <row r="23" spans="3:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C23" s="120"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="122"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="126"/>
       <c r="F23" s="26"/>
       <c r="G23" s="31"/>
       <c r="H23" s="26"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="115"/>
-      <c r="K23" s="115"/>
-      <c r="L23" s="115"/>
-      <c r="M23" s="115"/>
-      <c r="N23" s="115"/>
-      <c r="O23" s="115"/>
-      <c r="P23" s="115"/>
-      <c r="Q23" s="115"/>
+      <c r="I23" s="119"/>
+      <c r="J23" s="119"/>
+      <c r="K23" s="119"/>
+      <c r="L23" s="119"/>
+      <c r="M23" s="119"/>
+      <c r="N23" s="119"/>
+      <c r="O23" s="119"/>
+      <c r="P23" s="119"/>
+      <c r="Q23" s="119"/>
       <c r="R23" s="26"/>
       <c r="S23" s="32"/>
     </row>
     <row r="24" spans="3:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C24" s="120"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="122"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="126"/>
       <c r="F24" s="26"/>
       <c r="G24" s="31"/>
       <c r="H24" s="26"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="115"/>
-      <c r="K24" s="115"/>
-      <c r="L24" s="115"/>
-      <c r="M24" s="115"/>
-      <c r="N24" s="115"/>
-      <c r="O24" s="115"/>
-      <c r="P24" s="115"/>
-      <c r="Q24" s="115"/>
+      <c r="I24" s="119"/>
+      <c r="J24" s="119"/>
+      <c r="K24" s="119"/>
+      <c r="L24" s="119"/>
+      <c r="M24" s="119"/>
+      <c r="N24" s="119"/>
+      <c r="O24" s="119"/>
+      <c r="P24" s="119"/>
+      <c r="Q24" s="119"/>
       <c r="R24" s="26"/>
       <c r="S24" s="32"/>
     </row>
     <row r="25" spans="3:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C25" s="123"/>
-      <c r="D25" s="124"/>
-      <c r="E25" s="125"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="128"/>
+      <c r="E25" s="129"/>
       <c r="F25" s="26"/>
       <c r="G25" s="31"/>
       <c r="H25" s="26"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="115"/>
-      <c r="K25" s="115"/>
-      <c r="L25" s="115"/>
-      <c r="M25" s="115"/>
-      <c r="N25" s="115"/>
-      <c r="O25" s="115"/>
-      <c r="P25" s="115"/>
-      <c r="Q25" s="115"/>
+      <c r="I25" s="119"/>
+      <c r="J25" s="119"/>
+      <c r="K25" s="119"/>
+      <c r="L25" s="119"/>
+      <c r="M25" s="119"/>
+      <c r="N25" s="119"/>
+      <c r="O25" s="119"/>
+      <c r="P25" s="119"/>
+      <c r="Q25" s="119"/>
       <c r="R25" s="26"/>
       <c r="S25" s="32"/>
     </row>
@@ -3358,11 +3376,11 @@
       <c r="S26" s="32"/>
     </row>
     <row r="27" spans="3:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C27" s="114" t="s">
+      <c r="C27" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="115"/>
-      <c r="E27" s="115"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="119"/>
       <c r="F27" s="26"/>
       <c r="G27" s="33"/>
       <c r="H27" s="34"/>
@@ -3410,15 +3428,15 @@
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="26"/>
-      <c r="J30" s="126"/>
-      <c r="K30" s="127"/>
-      <c r="L30" s="127"/>
-      <c r="M30" s="127"/>
-      <c r="N30" s="127"/>
-      <c r="O30" s="127"/>
-      <c r="P30" s="127"/>
-      <c r="Q30" s="127"/>
-      <c r="R30" s="128"/>
+      <c r="J30" s="112"/>
+      <c r="K30" s="113"/>
+      <c r="L30" s="113"/>
+      <c r="M30" s="113"/>
+      <c r="N30" s="113"/>
+      <c r="O30" s="113"/>
+      <c r="P30" s="113"/>
+      <c r="Q30" s="113"/>
+      <c r="R30" s="114"/>
       <c r="S30" s="26"/>
     </row>
     <row r="31" spans="3:19" ht="26.25" x14ac:dyDescent="0.35">
@@ -3431,15 +3449,15 @@
       </c>
       <c r="H31" s="36"/>
       <c r="I31" s="26"/>
-      <c r="J31" s="126"/>
-      <c r="K31" s="127"/>
-      <c r="L31" s="127"/>
-      <c r="M31" s="127"/>
-      <c r="N31" s="127"/>
-      <c r="O31" s="127"/>
-      <c r="P31" s="127"/>
-      <c r="Q31" s="127"/>
-      <c r="R31" s="128"/>
+      <c r="J31" s="112"/>
+      <c r="K31" s="113"/>
+      <c r="L31" s="113"/>
+      <c r="M31" s="113"/>
+      <c r="N31" s="113"/>
+      <c r="O31" s="113"/>
+      <c r="P31" s="113"/>
+      <c r="Q31" s="192"/>
+      <c r="R31" s="193"/>
       <c r="S31" s="26"/>
     </row>
     <row r="32" spans="3:19" ht="26.25" x14ac:dyDescent="0.35">
@@ -3448,19 +3466,23 @@
       <c r="E32" s="10"/>
       <c r="F32" s="26"/>
       <c r="G32" s="36" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="H32" s="36"/>
       <c r="I32" s="26"/>
-      <c r="J32" s="126"/>
-      <c r="K32" s="127"/>
-      <c r="L32" s="127"/>
-      <c r="M32" s="127"/>
-      <c r="N32" s="127"/>
-      <c r="O32" s="127"/>
-      <c r="P32" s="127"/>
-      <c r="Q32" s="127"/>
-      <c r="R32" s="128"/>
+      <c r="J32" s="112">
+        <v>1</v>
+      </c>
+      <c r="K32" s="113"/>
+      <c r="L32" s="113"/>
+      <c r="M32" s="113"/>
+      <c r="N32" s="113"/>
+      <c r="O32" s="113"/>
+      <c r="P32" s="113"/>
+      <c r="Q32" s="195" t="s">
+        <v>109</v>
+      </c>
+      <c r="R32" s="195"/>
       <c r="S32" s="26"/>
     </row>
     <row r="33" spans="3:19" ht="26.25" x14ac:dyDescent="0.35">
@@ -3473,16 +3495,16 @@
       </c>
       <c r="H33" s="36"/>
       <c r="I33" s="26"/>
-      <c r="J33" s="126" t="s">
+      <c r="J33" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="K33" s="127"/>
-      <c r="L33" s="127"/>
-      <c r="M33" s="127"/>
-      <c r="N33" s="127"/>
-      <c r="O33" s="127"/>
-      <c r="P33" s="127"/>
-      <c r="Q33" s="128"/>
+      <c r="K33" s="113"/>
+      <c r="L33" s="113"/>
+      <c r="M33" s="113"/>
+      <c r="N33" s="113"/>
+      <c r="O33" s="113"/>
+      <c r="P33" s="113"/>
+      <c r="Q33" s="194"/>
       <c r="R33" s="37" t="s">
         <v>31</v>
       </c>
@@ -3521,11 +3543,11 @@
       <c r="M35" s="26"/>
       <c r="N35" s="26"/>
       <c r="O35" s="26"/>
-      <c r="P35" s="129" t="s">
+      <c r="P35" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="Q35" s="129"/>
-      <c r="R35" s="129"/>
+      <c r="Q35" s="115"/>
+      <c r="R35" s="115"/>
       <c r="S35" s="26"/>
     </row>
     <row r="36" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
@@ -3542,9 +3564,9 @@
       <c r="M36" s="26"/>
       <c r="N36" s="26"/>
       <c r="O36" s="26"/>
-      <c r="P36" s="129"/>
-      <c r="Q36" s="129"/>
-      <c r="R36" s="129"/>
+      <c r="P36" s="115"/>
+      <c r="Q36" s="115"/>
+      <c r="R36" s="115"/>
       <c r="S36" s="26"/>
     </row>
     <row r="37" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
@@ -3590,15 +3612,15 @@
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
-      <c r="G40" s="98" t="s">
+      <c r="G40" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="H40" s="98"/>
-      <c r="I40" s="98"/>
-      <c r="J40" s="98"/>
-      <c r="K40" s="98"/>
-      <c r="L40" s="98"/>
-      <c r="M40" s="98"/>
+      <c r="H40" s="82"/>
+      <c r="I40" s="82"/>
+      <c r="J40" s="82"/>
+      <c r="K40" s="82"/>
+      <c r="L40" s="82"/>
+      <c r="M40" s="82"/>
       <c r="N40" s="16"/>
       <c r="O40" s="16"/>
       <c r="P40" s="16"/>
@@ -3607,19 +3629,19 @@
       <c r="S40" s="17"/>
     </row>
     <row r="41" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="107" t="s">
+      <c r="C41" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="108"/>
-      <c r="E41" s="108"/>
-      <c r="F41" s="108"/>
-      <c r="G41" s="99"/>
-      <c r="H41" s="99"/>
-      <c r="I41" s="99"/>
-      <c r="J41" s="99"/>
-      <c r="K41" s="99"/>
-      <c r="L41" s="99"/>
-      <c r="M41" s="99"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="92"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="83"/>
+      <c r="J41" s="83"/>
+      <c r="K41" s="83"/>
+      <c r="L41" s="83"/>
+      <c r="M41" s="83"/>
       <c r="N41" s="18"/>
       <c r="O41" s="18"/>
       <c r="P41" s="18"/>
@@ -3628,64 +3650,64 @@
       <c r="S41" s="19"/>
     </row>
     <row r="42" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="109"/>
-      <c r="D42" s="108"/>
-      <c r="E42" s="108"/>
-      <c r="F42" s="108"/>
-      <c r="G42" s="99"/>
-      <c r="H42" s="99"/>
-      <c r="I42" s="99"/>
-      <c r="J42" s="99"/>
-      <c r="K42" s="99"/>
-      <c r="L42" s="99"/>
-      <c r="M42" s="99"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="92"/>
+      <c r="G42" s="83"/>
+      <c r="H42" s="83"/>
+      <c r="I42" s="83"/>
+      <c r="J42" s="83"/>
+      <c r="K42" s="83"/>
+      <c r="L42" s="83"/>
+      <c r="M42" s="83"/>
       <c r="N42" s="18"/>
-      <c r="O42" s="101" t="s">
+      <c r="O42" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="P42" s="102"/>
+      <c r="P42" s="86"/>
       <c r="Q42" s="18"/>
       <c r="R42" s="19"/>
       <c r="S42" s="19"/>
     </row>
     <row r="43" spans="3:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="110" t="s">
+      <c r="C43" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="110"/>
-      <c r="E43" s="110"/>
-      <c r="F43" s="110"/>
-      <c r="G43" s="99"/>
-      <c r="H43" s="99"/>
-      <c r="I43" s="99"/>
-      <c r="J43" s="99"/>
-      <c r="K43" s="99"/>
-      <c r="L43" s="99"/>
-      <c r="M43" s="99"/>
+      <c r="D43" s="94"/>
+      <c r="E43" s="94"/>
+      <c r="F43" s="94"/>
+      <c r="G43" s="83"/>
+      <c r="H43" s="83"/>
+      <c r="I43" s="83"/>
+      <c r="J43" s="83"/>
+      <c r="K43" s="83"/>
+      <c r="L43" s="83"/>
+      <c r="M43" s="83"/>
       <c r="N43" s="18"/>
-      <c r="O43" s="103"/>
-      <c r="P43" s="104"/>
+      <c r="O43" s="87"/>
+      <c r="P43" s="88"/>
       <c r="Q43" s="18"/>
       <c r="R43" s="19"/>
       <c r="S43" s="19"/>
     </row>
     <row r="44" spans="3:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="110" t="s">
+      <c r="C44" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="110"/>
-      <c r="E44" s="110"/>
-      <c r="F44" s="110"/>
-      <c r="G44" s="99"/>
-      <c r="H44" s="99"/>
-      <c r="I44" s="99"/>
-      <c r="J44" s="99"/>
-      <c r="K44" s="99"/>
-      <c r="L44" s="99"/>
-      <c r="M44" s="99"/>
+      <c r="D44" s="94"/>
+      <c r="E44" s="94"/>
+      <c r="F44" s="94"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="83"/>
+      <c r="I44" s="83"/>
+      <c r="J44" s="83"/>
+      <c r="K44" s="83"/>
+      <c r="L44" s="83"/>
+      <c r="M44" s="83"/>
       <c r="N44" s="18"/>
-      <c r="O44" s="105"/>
-      <c r="P44" s="106"/>
+      <c r="O44" s="89"/>
+      <c r="P44" s="90"/>
       <c r="Q44" s="18"/>
       <c r="R44" s="19"/>
       <c r="S44" s="19"/>
@@ -3695,13 +3717,13 @@
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
-      <c r="G45" s="100"/>
-      <c r="H45" s="100"/>
-      <c r="I45" s="100"/>
-      <c r="J45" s="100"/>
-      <c r="K45" s="100"/>
-      <c r="L45" s="100"/>
-      <c r="M45" s="100"/>
+      <c r="G45" s="84"/>
+      <c r="H45" s="84"/>
+      <c r="I45" s="84"/>
+      <c r="J45" s="84"/>
+      <c r="K45" s="84"/>
+      <c r="L45" s="84"/>
+      <c r="M45" s="84"/>
       <c r="N45" s="21"/>
       <c r="O45" s="21"/>
       <c r="P45" s="21"/>
@@ -3710,12 +3732,17 @@
       <c r="S45" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="J30:R30"/>
-    <mergeCell ref="J31:R31"/>
-    <mergeCell ref="J32:R32"/>
-    <mergeCell ref="J33:Q33"/>
-    <mergeCell ref="P35:R36"/>
+  <mergeCells count="27">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="C2:D8"/>
+    <mergeCell ref="E2:S8"/>
+    <mergeCell ref="G40:M45"/>
+    <mergeCell ref="C41:F42"/>
+    <mergeCell ref="O42:P44"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C44:F44"/>
     <mergeCell ref="R16:S16"/>
     <mergeCell ref="H16:P16"/>
     <mergeCell ref="N11:R11"/>
@@ -3727,16 +3754,12 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G40:M45"/>
-    <mergeCell ref="C41:F42"/>
-    <mergeCell ref="O42:P44"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="C2:D8"/>
-    <mergeCell ref="E2:S8"/>
+    <mergeCell ref="J30:R30"/>
+    <mergeCell ref="J31:R31"/>
+    <mergeCell ref="J33:Q33"/>
+    <mergeCell ref="P35:R36"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:R32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3761,157 +3784,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L1" s="79" t="s">
+      <c r="L1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="80"/>
-      <c r="N1" s="83" t="s">
+      <c r="M1" s="97"/>
+      <c r="N1" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="78" t="s">
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="78"/>
+      <c r="S1" s="95"/>
     </row>
     <row r="2" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="93" t="s">
+      <c r="D2" s="101"/>
+      <c r="E2" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
     </row>
     <row r="3" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
     </row>
     <row r="4" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="87"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
     </row>
     <row r="5" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="87"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
     </row>
     <row r="6" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="87"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="94"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
+      <c r="P6" s="109"/>
+      <c r="Q6" s="109"/>
+      <c r="R6" s="109"/>
+      <c r="S6" s="109"/>
     </row>
     <row r="7" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="87"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="94"/>
-      <c r="S7" s="94"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="109"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="109"/>
+      <c r="P7" s="109"/>
+      <c r="Q7" s="109"/>
+      <c r="R7" s="109"/>
+      <c r="S7" s="109"/>
     </row>
     <row r="8" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="89"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="94"/>
-      <c r="S8" s="94"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="109"/>
+      <c r="Q8" s="109"/>
+      <c r="R8" s="109"/>
+      <c r="S8" s="109"/>
     </row>
     <row r="11" spans="3:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="23" t="s">
@@ -3920,25 +3943,25 @@
       <c r="D11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="91" t="s">
+      <c r="E11" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="92"/>
-      <c r="G11" s="91" t="s">
+      <c r="F11" s="107"/>
+      <c r="G11" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="92"/>
-      <c r="I11" s="95" t="s">
+      <c r="H11" s="107"/>
+      <c r="I11" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="95"/>
-      <c r="N11" s="111" t="s">
+      <c r="J11" s="110"/>
+      <c r="N11" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="111"/>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="111"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="81"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="81"/>
       <c r="S11" s="27" t="s">
         <v>24</v>
       </c>
@@ -4260,8 +4283,8 @@
       <c r="J36" s="130"/>
     </row>
     <row r="38" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C38" s="84"/>
-      <c r="D38" s="84"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="99"/>
       <c r="E38" s="10"/>
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
@@ -4321,15 +4344,15 @@
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="98" t="s">
+      <c r="G42" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="H42" s="98"/>
-      <c r="I42" s="98"/>
-      <c r="J42" s="98"/>
-      <c r="K42" s="98"/>
-      <c r="L42" s="98"/>
-      <c r="M42" s="98"/>
+      <c r="H42" s="82"/>
+      <c r="I42" s="82"/>
+      <c r="J42" s="82"/>
+      <c r="K42" s="82"/>
+      <c r="L42" s="82"/>
+      <c r="M42" s="82"/>
       <c r="N42" s="16"/>
       <c r="O42" s="16"/>
       <c r="P42" s="16"/>
@@ -4338,19 +4361,19 @@
       <c r="S42" s="17"/>
     </row>
     <row r="43" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C43" s="107" t="s">
+      <c r="C43" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="108"/>
-      <c r="E43" s="108"/>
-      <c r="F43" s="108"/>
-      <c r="G43" s="99"/>
-      <c r="H43" s="99"/>
-      <c r="I43" s="99"/>
-      <c r="J43" s="99"/>
-      <c r="K43" s="99"/>
-      <c r="L43" s="99"/>
-      <c r="M43" s="99"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="92"/>
+      <c r="G43" s="83"/>
+      <c r="H43" s="83"/>
+      <c r="I43" s="83"/>
+      <c r="J43" s="83"/>
+      <c r="K43" s="83"/>
+      <c r="L43" s="83"/>
+      <c r="M43" s="83"/>
       <c r="N43" s="18"/>
       <c r="O43" s="18"/>
       <c r="P43" s="18"/>
@@ -4359,64 +4382,64 @@
       <c r="S43" s="19"/>
     </row>
     <row r="44" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C44" s="109"/>
-      <c r="D44" s="108"/>
-      <c r="E44" s="108"/>
-      <c r="F44" s="108"/>
-      <c r="G44" s="99"/>
-      <c r="H44" s="99"/>
-      <c r="I44" s="99"/>
-      <c r="J44" s="99"/>
-      <c r="K44" s="99"/>
-      <c r="L44" s="99"/>
-      <c r="M44" s="99"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="92"/>
+      <c r="E44" s="92"/>
+      <c r="F44" s="92"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="83"/>
+      <c r="I44" s="83"/>
+      <c r="J44" s="83"/>
+      <c r="K44" s="83"/>
+      <c r="L44" s="83"/>
+      <c r="M44" s="83"/>
       <c r="N44" s="18"/>
-      <c r="O44" s="101" t="s">
+      <c r="O44" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="P44" s="102"/>
+      <c r="P44" s="86"/>
       <c r="Q44" s="18"/>
       <c r="R44" s="19"/>
       <c r="S44" s="19"/>
     </row>
     <row r="45" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C45" s="110" t="s">
+      <c r="C45" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="110"/>
-      <c r="E45" s="110"/>
-      <c r="F45" s="110"/>
-      <c r="G45" s="99"/>
-      <c r="H45" s="99"/>
-      <c r="I45" s="99"/>
-      <c r="J45" s="99"/>
-      <c r="K45" s="99"/>
-      <c r="L45" s="99"/>
-      <c r="M45" s="99"/>
+      <c r="D45" s="94"/>
+      <c r="E45" s="94"/>
+      <c r="F45" s="94"/>
+      <c r="G45" s="83"/>
+      <c r="H45" s="83"/>
+      <c r="I45" s="83"/>
+      <c r="J45" s="83"/>
+      <c r="K45" s="83"/>
+      <c r="L45" s="83"/>
+      <c r="M45" s="83"/>
       <c r="N45" s="18"/>
-      <c r="O45" s="103"/>
-      <c r="P45" s="104"/>
+      <c r="O45" s="87"/>
+      <c r="P45" s="88"/>
       <c r="Q45" s="18"/>
       <c r="R45" s="19"/>
       <c r="S45" s="19"/>
     </row>
     <row r="46" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C46" s="110" t="s">
+      <c r="C46" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="110"/>
-      <c r="E46" s="110"/>
-      <c r="F46" s="110"/>
-      <c r="G46" s="99"/>
-      <c r="H46" s="99"/>
-      <c r="I46" s="99"/>
-      <c r="J46" s="99"/>
-      <c r="K46" s="99"/>
-      <c r="L46" s="99"/>
-      <c r="M46" s="99"/>
+      <c r="D46" s="94"/>
+      <c r="E46" s="94"/>
+      <c r="F46" s="94"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="83"/>
+      <c r="I46" s="83"/>
+      <c r="J46" s="83"/>
+      <c r="K46" s="83"/>
+      <c r="L46" s="83"/>
+      <c r="M46" s="83"/>
       <c r="N46" s="18"/>
-      <c r="O46" s="105"/>
-      <c r="P46" s="106"/>
+      <c r="O46" s="89"/>
+      <c r="P46" s="90"/>
       <c r="Q46" s="18"/>
       <c r="R46" s="19"/>
       <c r="S46" s="19"/>
@@ -4426,13 +4449,13 @@
       <c r="D47" s="21"/>
       <c r="E47" s="21"/>
       <c r="F47" s="21"/>
-      <c r="G47" s="100"/>
-      <c r="H47" s="100"/>
-      <c r="I47" s="100"/>
-      <c r="J47" s="100"/>
-      <c r="K47" s="100"/>
-      <c r="L47" s="100"/>
-      <c r="M47" s="100"/>
+      <c r="G47" s="84"/>
+      <c r="H47" s="84"/>
+      <c r="I47" s="84"/>
+      <c r="J47" s="84"/>
+      <c r="K47" s="84"/>
+      <c r="L47" s="84"/>
+      <c r="M47" s="84"/>
       <c r="N47" s="21"/>
       <c r="O47" s="21"/>
       <c r="P47" s="21"/>
@@ -4442,12 +4465,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="G42:M47"/>
-    <mergeCell ref="C43:F44"/>
-    <mergeCell ref="O44:P46"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="C2:D8"/>
     <mergeCell ref="E2:S8"/>
     <mergeCell ref="C35:C36"/>
@@ -4464,12 +4487,12 @@
     <mergeCell ref="C22:C25"/>
     <mergeCell ref="E25:G25"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="G42:M47"/>
+    <mergeCell ref="C43:F44"/>
+    <mergeCell ref="O44:P46"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C46:F46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4494,157 +4517,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L1" s="79" t="s">
+      <c r="L1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="80"/>
-      <c r="N1" s="83" t="s">
+      <c r="M1" s="97"/>
+      <c r="N1" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="78" t="s">
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="78"/>
+      <c r="S1" s="95"/>
     </row>
     <row r="2" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="93" t="s">
+      <c r="D2" s="101"/>
+      <c r="E2" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
     </row>
     <row r="3" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
     </row>
     <row r="4" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="87"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
     </row>
     <row r="5" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="87"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
     </row>
     <row r="6" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="87"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="94"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
+      <c r="P6" s="109"/>
+      <c r="Q6" s="109"/>
+      <c r="R6" s="109"/>
+      <c r="S6" s="109"/>
     </row>
     <row r="7" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="87"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="94"/>
-      <c r="S7" s="94"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="109"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="109"/>
+      <c r="P7" s="109"/>
+      <c r="Q7" s="109"/>
+      <c r="R7" s="109"/>
+      <c r="S7" s="109"/>
     </row>
     <row r="8" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="89"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="94"/>
-      <c r="S8" s="94"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="109"/>
+      <c r="Q8" s="109"/>
+      <c r="R8" s="109"/>
+      <c r="S8" s="109"/>
     </row>
     <row r="11" spans="3:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="23" t="s">
@@ -4653,25 +4676,25 @@
       <c r="D11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="91" t="s">
+      <c r="E11" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="92"/>
-      <c r="G11" s="91" t="s">
+      <c r="F11" s="107"/>
+      <c r="G11" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="92"/>
-      <c r="I11" s="95" t="s">
+      <c r="H11" s="107"/>
+      <c r="I11" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="95"/>
-      <c r="N11" s="111" t="s">
+      <c r="J11" s="110"/>
+      <c r="N11" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="111"/>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="111"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="81"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="81"/>
       <c r="S11" s="27" t="s">
         <v>24</v>
       </c>
@@ -4948,15 +4971,15 @@
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
-      <c r="G38" s="99" t="s">
+      <c r="G38" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="99"/>
-      <c r="I38" s="99"/>
-      <c r="J38" s="99"/>
-      <c r="K38" s="99"/>
-      <c r="L38" s="99"/>
-      <c r="M38" s="99"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="83"/>
+      <c r="J38" s="83"/>
+      <c r="K38" s="83"/>
+      <c r="L38" s="83"/>
+      <c r="M38" s="83"/>
       <c r="N38" s="18"/>
       <c r="O38" s="18"/>
       <c r="P38" s="18"/>
@@ -4965,19 +4988,19 @@
       <c r="S38" s="19"/>
     </row>
     <row r="39" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C39" s="107" t="s">
+      <c r="C39" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="108"/>
-      <c r="E39" s="108"/>
-      <c r="F39" s="108"/>
-      <c r="G39" s="99"/>
-      <c r="H39" s="99"/>
-      <c r="I39" s="99"/>
-      <c r="J39" s="99"/>
-      <c r="K39" s="99"/>
-      <c r="L39" s="99"/>
-      <c r="M39" s="99"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="83"/>
+      <c r="I39" s="83"/>
+      <c r="J39" s="83"/>
+      <c r="K39" s="83"/>
+      <c r="L39" s="83"/>
+      <c r="M39" s="83"/>
       <c r="N39" s="18"/>
       <c r="O39" s="18"/>
       <c r="P39" s="18"/>
@@ -4986,64 +5009,64 @@
       <c r="S39" s="19"/>
     </row>
     <row r="40" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C40" s="109"/>
-      <c r="D40" s="108"/>
-      <c r="E40" s="108"/>
-      <c r="F40" s="108"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="99"/>
-      <c r="I40" s="99"/>
-      <c r="J40" s="99"/>
-      <c r="K40" s="99"/>
-      <c r="L40" s="99"/>
-      <c r="M40" s="99"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="83"/>
+      <c r="I40" s="83"/>
+      <c r="J40" s="83"/>
+      <c r="K40" s="83"/>
+      <c r="L40" s="83"/>
+      <c r="M40" s="83"/>
       <c r="N40" s="18"/>
-      <c r="O40" s="101" t="s">
+      <c r="O40" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="P40" s="102"/>
+      <c r="P40" s="86"/>
       <c r="Q40" s="18"/>
       <c r="R40" s="19"/>
       <c r="S40" s="19"/>
     </row>
     <row r="41" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C41" s="110" t="s">
+      <c r="C41" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="110"/>
-      <c r="E41" s="110"/>
-      <c r="F41" s="110"/>
-      <c r="G41" s="99"/>
-      <c r="H41" s="99"/>
-      <c r="I41" s="99"/>
-      <c r="J41" s="99"/>
-      <c r="K41" s="99"/>
-      <c r="L41" s="99"/>
-      <c r="M41" s="99"/>
+      <c r="D41" s="94"/>
+      <c r="E41" s="94"/>
+      <c r="F41" s="94"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="83"/>
+      <c r="J41" s="83"/>
+      <c r="K41" s="83"/>
+      <c r="L41" s="83"/>
+      <c r="M41" s="83"/>
       <c r="N41" s="18"/>
-      <c r="O41" s="103"/>
-      <c r="P41" s="104"/>
+      <c r="O41" s="87"/>
+      <c r="P41" s="88"/>
       <c r="Q41" s="18"/>
       <c r="R41" s="19"/>
       <c r="S41" s="19"/>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C42" s="110" t="s">
+      <c r="C42" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="110"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="110"/>
-      <c r="G42" s="99"/>
-      <c r="H42" s="99"/>
-      <c r="I42" s="99"/>
-      <c r="J42" s="99"/>
-      <c r="K42" s="99"/>
-      <c r="L42" s="99"/>
-      <c r="M42" s="99"/>
+      <c r="D42" s="94"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="94"/>
+      <c r="G42" s="83"/>
+      <c r="H42" s="83"/>
+      <c r="I42" s="83"/>
+      <c r="J42" s="83"/>
+      <c r="K42" s="83"/>
+      <c r="L42" s="83"/>
+      <c r="M42" s="83"/>
       <c r="N42" s="18"/>
-      <c r="O42" s="105"/>
-      <c r="P42" s="106"/>
+      <c r="O42" s="89"/>
+      <c r="P42" s="90"/>
       <c r="Q42" s="18"/>
       <c r="R42" s="19"/>
       <c r="S42" s="19"/>
@@ -5053,13 +5076,13 @@
       <c r="D43" s="21"/>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
-      <c r="G43" s="100"/>
-      <c r="H43" s="100"/>
-      <c r="I43" s="100"/>
-      <c r="J43" s="100"/>
-      <c r="K43" s="100"/>
-      <c r="L43" s="100"/>
-      <c r="M43" s="100"/>
+      <c r="G43" s="84"/>
+      <c r="H43" s="84"/>
+      <c r="I43" s="84"/>
+      <c r="J43" s="84"/>
+      <c r="K43" s="84"/>
+      <c r="L43" s="84"/>
+      <c r="M43" s="84"/>
       <c r="N43" s="21"/>
       <c r="O43" s="21"/>
       <c r="P43" s="21"/>
@@ -5069,6 +5092,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="C2:D8"/>
+    <mergeCell ref="E2:S8"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="N11:R11"/>
     <mergeCell ref="O40:P42"/>
     <mergeCell ref="C41:F41"/>
     <mergeCell ref="C42:F42"/>
@@ -5080,13 +5110,6 @@
     <mergeCell ref="E15:H16"/>
     <mergeCell ref="G38:M43"/>
     <mergeCell ref="C39:F40"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="C2:D8"/>
-    <mergeCell ref="E2:S8"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="N11:R11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5116,161 +5139,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:91" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J1" s="79" t="s">
+      <c r="J1" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="80"/>
-      <c r="L1" s="79" t="s">
+      <c r="K1" s="97"/>
+      <c r="L1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="80"/>
-      <c r="N1" s="83" t="s">
+      <c r="M1" s="97"/>
+      <c r="N1" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="78" t="s">
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="78"/>
+      <c r="S1" s="95"/>
     </row>
     <row r="2" spans="3:91" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="93" t="s">
+      <c r="D2" s="101"/>
+      <c r="E2" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
     </row>
     <row r="3" spans="3:91" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
     </row>
     <row r="4" spans="3:91" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="87"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
     </row>
     <row r="5" spans="3:91" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="87"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
     </row>
     <row r="6" spans="3:91" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="87"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="94"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
+      <c r="P6" s="109"/>
+      <c r="Q6" s="109"/>
+      <c r="R6" s="109"/>
+      <c r="S6" s="109"/>
     </row>
     <row r="7" spans="3:91" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="87"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="94"/>
-      <c r="S7" s="94"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="109"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="109"/>
+      <c r="P7" s="109"/>
+      <c r="Q7" s="109"/>
+      <c r="R7" s="109"/>
+      <c r="S7" s="109"/>
     </row>
     <row r="8" spans="3:91" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="89"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="94"/>
-      <c r="S8" s="94"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="109"/>
+      <c r="Q8" s="109"/>
+      <c r="R8" s="109"/>
+      <c r="S8" s="109"/>
     </row>
     <row r="11" spans="3:91" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="23" t="s">
@@ -5279,34 +5302,34 @@
       <c r="D11" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="91" t="s">
+      <c r="E11" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="92"/>
-      <c r="G11" s="91" t="s">
+      <c r="F11" s="107"/>
+      <c r="G11" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="92"/>
-      <c r="I11" s="95" t="s">
+      <c r="H11" s="107"/>
+      <c r="I11" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="95"/>
-      <c r="N11" s="111" t="s">
+      <c r="J11" s="110"/>
+      <c r="N11" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="111"/>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="111"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="81"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="81"/>
       <c r="S11" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="3:91" ht="64.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C12" s="185" t="s">
+      <c r="C12" s="160" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="185"/>
+      <c r="D12" s="160"/>
       <c r="E12" s="2"/>
       <c r="BY12" s="77" t="s">
         <v>107</v>
@@ -5321,18 +5344,18 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="183" t="s">
+      <c r="K13" s="175" t="s">
         <v>77</v>
       </c>
-      <c r="L13" s="183"/>
-      <c r="M13" s="184"/>
-      <c r="N13" s="111" t="s">
+      <c r="L13" s="175"/>
+      <c r="M13" s="176"/>
+      <c r="N13" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="O13" s="111"/>
-      <c r="P13" s="111"/>
-      <c r="Q13" s="111"/>
-      <c r="R13" s="111"/>
+      <c r="O13" s="81"/>
+      <c r="P13" s="81"/>
+      <c r="Q13" s="81"/>
+      <c r="R13" s="81"/>
       <c r="S13" s="27" t="s">
         <v>24</v>
       </c>
@@ -5348,14 +5371,14 @@
         <v>87</v>
       </c>
       <c r="AI13" s="73"/>
-      <c r="AJ13" s="175" t="s">
+      <c r="AJ13" s="180" t="s">
         <v>78</v>
       </c>
-      <c r="AK13" s="176"/>
-      <c r="AL13" s="176"/>
-      <c r="AM13" s="176"/>
-      <c r="AN13" s="176"/>
-      <c r="AO13" s="177"/>
+      <c r="AK13" s="181"/>
+      <c r="AL13" s="181"/>
+      <c r="AM13" s="181"/>
+      <c r="AN13" s="181"/>
+      <c r="AO13" s="182"/>
       <c r="AP13" s="27" t="s">
         <v>24</v>
       </c>
@@ -5394,14 +5417,14 @@
         <v>87</v>
       </c>
       <c r="CF13" s="73"/>
-      <c r="CG13" s="175" t="s">
+      <c r="CG13" s="180" t="s">
         <v>78</v>
       </c>
-      <c r="CH13" s="176"/>
-      <c r="CI13" s="176"/>
-      <c r="CJ13" s="176"/>
-      <c r="CK13" s="176"/>
-      <c r="CL13" s="177"/>
+      <c r="CH13" s="181"/>
+      <c r="CI13" s="181"/>
+      <c r="CJ13" s="181"/>
+      <c r="CK13" s="181"/>
+      <c r="CL13" s="182"/>
       <c r="CM13" s="27" t="s">
         <v>24</v>
       </c>
@@ -5410,363 +5433,363 @@
       <c r="D14" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="161" t="s">
+      <c r="E14" s="154" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="178"/>
-      <c r="G14" s="161" t="s">
+      <c r="F14" s="155"/>
+      <c r="G14" s="154" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="162"/>
-      <c r="I14" s="189" t="s">
+      <c r="H14" s="156"/>
+      <c r="I14" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="190"/>
-      <c r="K14" s="190"/>
-      <c r="L14" s="191"/>
-      <c r="M14" s="161" t="s">
+      <c r="J14" s="158"/>
+      <c r="K14" s="158"/>
+      <c r="L14" s="159"/>
+      <c r="M14" s="154" t="s">
         <v>68</v>
       </c>
-      <c r="N14" s="178"/>
-      <c r="O14" s="161" t="s">
+      <c r="N14" s="155"/>
+      <c r="O14" s="154" t="s">
         <v>69</v>
       </c>
-      <c r="P14" s="162"/>
-      <c r="Q14" s="178" t="s">
+      <c r="P14" s="156"/>
+      <c r="Q14" s="155" t="s">
         <v>72</v>
       </c>
-      <c r="R14" s="178"/>
-      <c r="S14" s="162"/>
+      <c r="R14" s="155"/>
+      <c r="S14" s="156"/>
       <c r="AA14" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="AB14" s="161" t="s">
+      <c r="AB14" s="154" t="s">
         <v>83</v>
       </c>
-      <c r="AC14" s="162"/>
+      <c r="AC14" s="156"/>
       <c r="AD14" s="61" t="s">
         <v>84</v>
       </c>
       <c r="AE14" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="AF14" s="161" t="s">
+      <c r="AF14" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="AG14" s="178"/>
-      <c r="AH14" s="178"/>
-      <c r="AI14" s="162"/>
-      <c r="AJ14" s="179" t="s">
+      <c r="AG14" s="155"/>
+      <c r="AH14" s="155"/>
+      <c r="AI14" s="156"/>
+      <c r="AJ14" s="183" t="s">
         <v>90</v>
       </c>
-      <c r="AK14" s="180"/>
-      <c r="AL14" s="179" t="s">
+      <c r="AK14" s="185"/>
+      <c r="AL14" s="183" t="s">
         <v>79</v>
       </c>
-      <c r="AM14" s="180"/>
-      <c r="AN14" s="179" t="s">
+      <c r="AM14" s="185"/>
+      <c r="AN14" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="AO14" s="181"/>
-      <c r="AP14" s="180"/>
+      <c r="AO14" s="184"/>
+      <c r="AP14" s="185"/>
       <c r="AY14" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="AZ14" s="161" t="s">
+      <c r="AZ14" s="154" t="s">
         <v>83</v>
       </c>
-      <c r="BA14" s="162"/>
-      <c r="BB14" s="161" t="s">
+      <c r="BA14" s="156"/>
+      <c r="BB14" s="154" t="s">
         <v>97</v>
       </c>
-      <c r="BC14" s="162"/>
-      <c r="BD14" s="161" t="s">
+      <c r="BC14" s="156"/>
+      <c r="BD14" s="154" t="s">
         <v>96</v>
       </c>
-      <c r="BE14" s="178"/>
-      <c r="BF14" s="178"/>
-      <c r="BG14" s="162"/>
-      <c r="BH14" s="179" t="s">
+      <c r="BE14" s="155"/>
+      <c r="BF14" s="155"/>
+      <c r="BG14" s="156"/>
+      <c r="BH14" s="183" t="s">
         <v>100</v>
       </c>
-      <c r="BI14" s="180"/>
-      <c r="BJ14" s="179" t="s">
+      <c r="BI14" s="185"/>
+      <c r="BJ14" s="183" t="s">
         <v>79</v>
       </c>
-      <c r="BK14" s="180"/>
-      <c r="BL14" s="179" t="s">
+      <c r="BK14" s="185"/>
+      <c r="BL14" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="BM14" s="181"/>
-      <c r="BN14" s="181"/>
+      <c r="BM14" s="184"/>
+      <c r="BN14" s="184"/>
       <c r="BX14" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="BY14" s="161" t="s">
+      <c r="BY14" s="154" t="s">
         <v>83</v>
       </c>
-      <c r="BZ14" s="162"/>
+      <c r="BZ14" s="156"/>
       <c r="CA14" s="61" t="s">
         <v>84</v>
       </c>
       <c r="CB14" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="CC14" s="161" t="s">
+      <c r="CC14" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="CD14" s="178"/>
-      <c r="CE14" s="178"/>
-      <c r="CF14" s="162"/>
-      <c r="CG14" s="179" t="s">
+      <c r="CD14" s="155"/>
+      <c r="CE14" s="155"/>
+      <c r="CF14" s="156"/>
+      <c r="CG14" s="183" t="s">
         <v>90</v>
       </c>
-      <c r="CH14" s="180"/>
-      <c r="CI14" s="179" t="s">
+      <c r="CH14" s="185"/>
+      <c r="CI14" s="183" t="s">
         <v>79</v>
       </c>
-      <c r="CJ14" s="180"/>
-      <c r="CK14" s="179" t="s">
+      <c r="CJ14" s="185"/>
+      <c r="CK14" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="CL14" s="181"/>
-      <c r="CM14" s="180"/>
+      <c r="CL14" s="184"/>
+      <c r="CM14" s="185"/>
     </row>
     <row r="15" spans="3:91" ht="21" x14ac:dyDescent="0.35">
       <c r="C15" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="171">
+      <c r="D15" s="167">
         <v>1</v>
       </c>
-      <c r="E15" s="167" t="s">
+      <c r="E15" s="169" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="173"/>
-      <c r="G15" s="167" t="s">
+      <c r="F15" s="170"/>
+      <c r="G15" s="169" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="168"/>
-      <c r="I15" s="167" t="s">
+      <c r="H15" s="171"/>
+      <c r="I15" s="169" t="s">
         <v>70</v>
       </c>
-      <c r="J15" s="173"/>
-      <c r="K15" s="173"/>
-      <c r="L15" s="168"/>
-      <c r="M15" s="167" t="s">
+      <c r="J15" s="170"/>
+      <c r="K15" s="170"/>
+      <c r="L15" s="171"/>
+      <c r="M15" s="169" t="s">
         <v>71</v>
       </c>
-      <c r="N15" s="168"/>
-      <c r="O15" s="167">
+      <c r="N15" s="171"/>
+      <c r="O15" s="169">
         <v>520000</v>
       </c>
-      <c r="P15" s="168"/>
-      <c r="Q15" s="156" t="s">
+      <c r="P15" s="171"/>
+      <c r="Q15" s="164" t="s">
         <v>74</v>
       </c>
-      <c r="R15" s="157"/>
-      <c r="S15" s="158"/>
-      <c r="X15" s="159" t="s">
+      <c r="R15" s="165"/>
+      <c r="S15" s="166"/>
+      <c r="X15" s="177" t="s">
         <v>60</v>
       </c>
-      <c r="Y15" s="159"/>
-      <c r="Z15" s="159"/>
-      <c r="AA15" s="171">
+      <c r="Y15" s="177"/>
+      <c r="Z15" s="177"/>
+      <c r="AA15" s="167">
         <v>1</v>
       </c>
-      <c r="AB15" s="167" t="s">
+      <c r="AB15" s="169" t="s">
         <v>86</v>
       </c>
-      <c r="AC15" s="168"/>
-      <c r="AD15" s="171" t="s">
+      <c r="AC15" s="171"/>
+      <c r="AD15" s="167" t="s">
         <v>85</v>
       </c>
-      <c r="AE15" s="171" t="s">
+      <c r="AE15" s="167" t="s">
         <v>92</v>
       </c>
-      <c r="AF15" s="167" t="s">
+      <c r="AF15" s="169" t="s">
         <v>70</v>
       </c>
-      <c r="AG15" s="173"/>
-      <c r="AH15" s="173"/>
-      <c r="AI15" s="168"/>
-      <c r="AJ15" s="167">
+      <c r="AG15" s="170"/>
+      <c r="AH15" s="170"/>
+      <c r="AI15" s="171"/>
+      <c r="AJ15" s="169">
         <v>50</v>
       </c>
-      <c r="AK15" s="168"/>
-      <c r="AL15" s="167" t="s">
+      <c r="AK15" s="171"/>
+      <c r="AL15" s="169" t="s">
         <v>93</v>
       </c>
-      <c r="AM15" s="168"/>
-      <c r="AN15" s="156" t="s">
+      <c r="AM15" s="171"/>
+      <c r="AN15" s="164" t="s">
         <v>89</v>
       </c>
-      <c r="AO15" s="157"/>
-      <c r="AP15" s="158"/>
-      <c r="AV15" s="159" t="s">
+      <c r="AO15" s="165"/>
+      <c r="AP15" s="166"/>
+      <c r="AV15" s="177" t="s">
         <v>60</v>
       </c>
-      <c r="AW15" s="159"/>
-      <c r="AX15" s="159"/>
-      <c r="AY15" s="171">
+      <c r="AW15" s="177"/>
+      <c r="AX15" s="177"/>
+      <c r="AY15" s="167">
         <v>1</v>
       </c>
-      <c r="AZ15" s="167" t="s">
+      <c r="AZ15" s="169" t="s">
         <v>66</v>
       </c>
-      <c r="BA15" s="168"/>
-      <c r="BB15" s="163" t="s">
+      <c r="BA15" s="171"/>
+      <c r="BB15" s="186" t="s">
         <v>98</v>
       </c>
-      <c r="BC15" s="164"/>
-      <c r="BD15" s="167" t="s">
+      <c r="BC15" s="187"/>
+      <c r="BD15" s="169" t="s">
         <v>99</v>
       </c>
-      <c r="BE15" s="173"/>
-      <c r="BF15" s="173"/>
-      <c r="BG15" s="168"/>
-      <c r="BH15" s="167">
+      <c r="BE15" s="170"/>
+      <c r="BF15" s="170"/>
+      <c r="BG15" s="171"/>
+      <c r="BH15" s="169">
         <v>1000</v>
       </c>
-      <c r="BI15" s="168"/>
-      <c r="BJ15" s="167" t="s">
+      <c r="BI15" s="171"/>
+      <c r="BJ15" s="169" t="s">
         <v>101</v>
       </c>
-      <c r="BK15" s="168"/>
-      <c r="BL15" s="156" t="s">
+      <c r="BK15" s="171"/>
+      <c r="BL15" s="164" t="s">
         <v>102</v>
       </c>
-      <c r="BM15" s="157"/>
-      <c r="BN15" s="157"/>
-      <c r="BU15" s="159" t="s">
+      <c r="BM15" s="165"/>
+      <c r="BN15" s="165"/>
+      <c r="BU15" s="177" t="s">
         <v>60</v>
       </c>
-      <c r="BV15" s="159"/>
-      <c r="BW15" s="159"/>
-      <c r="BX15" s="171">
+      <c r="BV15" s="177"/>
+      <c r="BW15" s="177"/>
+      <c r="BX15" s="167">
         <v>1</v>
       </c>
-      <c r="BY15" s="167" t="s">
+      <c r="BY15" s="169" t="s">
         <v>86</v>
       </c>
-      <c r="BZ15" s="168"/>
-      <c r="CA15" s="171" t="s">
+      <c r="BZ15" s="171"/>
+      <c r="CA15" s="167" t="s">
         <v>85</v>
       </c>
-      <c r="CB15" s="171" t="s">
+      <c r="CB15" s="167" t="s">
         <v>92</v>
       </c>
-      <c r="CC15" s="167" t="s">
+      <c r="CC15" s="169" t="s">
         <v>70</v>
       </c>
-      <c r="CD15" s="173"/>
-      <c r="CE15" s="173"/>
-      <c r="CF15" s="168"/>
-      <c r="CG15" s="167">
+      <c r="CD15" s="170"/>
+      <c r="CE15" s="170"/>
+      <c r="CF15" s="171"/>
+      <c r="CG15" s="169">
         <v>50</v>
       </c>
-      <c r="CH15" s="168"/>
-      <c r="CI15" s="167" t="s">
+      <c r="CH15" s="171"/>
+      <c r="CI15" s="169" t="s">
         <v>93</v>
       </c>
-      <c r="CJ15" s="168"/>
-      <c r="CK15" s="156" t="s">
+      <c r="CJ15" s="171"/>
+      <c r="CK15" s="164" t="s">
         <v>89</v>
       </c>
-      <c r="CL15" s="157"/>
-      <c r="CM15" s="158"/>
+      <c r="CL15" s="165"/>
+      <c r="CM15" s="166"/>
     </row>
     <row r="16" spans="3:91" ht="21" x14ac:dyDescent="0.35">
       <c r="C16" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="172"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="174"/>
-      <c r="G16" s="169"/>
-      <c r="H16" s="170"/>
-      <c r="I16" s="169"/>
-      <c r="J16" s="174"/>
-      <c r="K16" s="174"/>
-      <c r="L16" s="170"/>
-      <c r="M16" s="169"/>
-      <c r="N16" s="170"/>
-      <c r="O16" s="169"/>
-      <c r="P16" s="170"/>
-      <c r="Q16" s="186" t="s">
+      <c r="D16" s="168"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="172"/>
+      <c r="H16" s="174"/>
+      <c r="I16" s="172"/>
+      <c r="J16" s="173"/>
+      <c r="K16" s="173"/>
+      <c r="L16" s="174"/>
+      <c r="M16" s="172"/>
+      <c r="N16" s="174"/>
+      <c r="O16" s="172"/>
+      <c r="P16" s="174"/>
+      <c r="Q16" s="161" t="s">
         <v>75</v>
       </c>
-      <c r="R16" s="187"/>
-      <c r="S16" s="188"/>
-      <c r="X16" s="160" t="s">
+      <c r="R16" s="162"/>
+      <c r="S16" s="163"/>
+      <c r="X16" s="178" t="s">
         <v>61</v>
       </c>
-      <c r="Y16" s="160"/>
-      <c r="Z16" s="160"/>
-      <c r="AA16" s="172"/>
-      <c r="AB16" s="169"/>
-      <c r="AC16" s="170"/>
-      <c r="AD16" s="172"/>
-      <c r="AE16" s="172"/>
-      <c r="AF16" s="169"/>
-      <c r="AG16" s="174"/>
-      <c r="AH16" s="174"/>
-      <c r="AI16" s="170"/>
-      <c r="AJ16" s="169"/>
-      <c r="AK16" s="170"/>
-      <c r="AL16" s="169"/>
-      <c r="AM16" s="170"/>
-      <c r="AN16" s="156" t="s">
+      <c r="Y16" s="178"/>
+      <c r="Z16" s="178"/>
+      <c r="AA16" s="168"/>
+      <c r="AB16" s="172"/>
+      <c r="AC16" s="174"/>
+      <c r="AD16" s="168"/>
+      <c r="AE16" s="168"/>
+      <c r="AF16" s="172"/>
+      <c r="AG16" s="173"/>
+      <c r="AH16" s="173"/>
+      <c r="AI16" s="174"/>
+      <c r="AJ16" s="172"/>
+      <c r="AK16" s="174"/>
+      <c r="AL16" s="172"/>
+      <c r="AM16" s="174"/>
+      <c r="AN16" s="164" t="s">
         <v>88</v>
       </c>
-      <c r="AO16" s="157"/>
-      <c r="AP16" s="158"/>
-      <c r="AV16" s="159" t="s">
+      <c r="AO16" s="165"/>
+      <c r="AP16" s="166"/>
+      <c r="AV16" s="177" t="s">
         <v>61</v>
       </c>
-      <c r="AW16" s="159"/>
-      <c r="AX16" s="159"/>
-      <c r="AY16" s="172"/>
-      <c r="AZ16" s="169"/>
-      <c r="BA16" s="170"/>
-      <c r="BB16" s="165"/>
-      <c r="BC16" s="166"/>
-      <c r="BD16" s="169"/>
-      <c r="BE16" s="174"/>
-      <c r="BF16" s="174"/>
-      <c r="BG16" s="170"/>
-      <c r="BH16" s="169"/>
-      <c r="BI16" s="170"/>
-      <c r="BJ16" s="169"/>
-      <c r="BK16" s="170"/>
-      <c r="BL16" s="156" t="s">
+      <c r="AW16" s="177"/>
+      <c r="AX16" s="177"/>
+      <c r="AY16" s="168"/>
+      <c r="AZ16" s="172"/>
+      <c r="BA16" s="174"/>
+      <c r="BB16" s="188"/>
+      <c r="BC16" s="189"/>
+      <c r="BD16" s="172"/>
+      <c r="BE16" s="173"/>
+      <c r="BF16" s="173"/>
+      <c r="BG16" s="174"/>
+      <c r="BH16" s="172"/>
+      <c r="BI16" s="174"/>
+      <c r="BJ16" s="172"/>
+      <c r="BK16" s="174"/>
+      <c r="BL16" s="164" t="s">
         <v>103</v>
       </c>
-      <c r="BM16" s="157"/>
-      <c r="BN16" s="157"/>
-      <c r="BU16" s="159" t="s">
+      <c r="BM16" s="165"/>
+      <c r="BN16" s="165"/>
+      <c r="BU16" s="177" t="s">
         <v>61</v>
       </c>
-      <c r="BV16" s="159"/>
-      <c r="BW16" s="159"/>
-      <c r="BX16" s="172"/>
-      <c r="BY16" s="169"/>
-      <c r="BZ16" s="170"/>
-      <c r="CA16" s="172"/>
-      <c r="CB16" s="172"/>
-      <c r="CC16" s="169"/>
-      <c r="CD16" s="174"/>
-      <c r="CE16" s="174"/>
-      <c r="CF16" s="170"/>
-      <c r="CG16" s="169"/>
-      <c r="CH16" s="170"/>
-      <c r="CI16" s="169"/>
-      <c r="CJ16" s="170"/>
-      <c r="CK16" s="156" t="s">
+      <c r="BV16" s="177"/>
+      <c r="BW16" s="177"/>
+      <c r="BX16" s="168"/>
+      <c r="BY16" s="172"/>
+      <c r="BZ16" s="174"/>
+      <c r="CA16" s="168"/>
+      <c r="CB16" s="168"/>
+      <c r="CC16" s="172"/>
+      <c r="CD16" s="173"/>
+      <c r="CE16" s="173"/>
+      <c r="CF16" s="174"/>
+      <c r="CG16" s="172"/>
+      <c r="CH16" s="174"/>
+      <c r="CI16" s="172"/>
+      <c r="CJ16" s="174"/>
+      <c r="CK16" s="164" t="s">
         <v>88</v>
       </c>
-      <c r="CL16" s="157"/>
-      <c r="CM16" s="158"/>
+      <c r="CL16" s="165"/>
+      <c r="CM16" s="166"/>
     </row>
     <row r="17" spans="3:91" ht="21" x14ac:dyDescent="0.35">
       <c r="C17" s="64" t="s">
@@ -5792,11 +5815,11 @@
       <c r="Q17" s="69"/>
       <c r="R17" s="71"/>
       <c r="S17" s="70"/>
-      <c r="X17" s="182" t="s">
+      <c r="X17" s="179" t="s">
         <v>62</v>
       </c>
-      <c r="Y17" s="182"/>
-      <c r="Z17" s="182"/>
+      <c r="Y17" s="179"/>
+      <c r="Z17" s="179"/>
       <c r="AA17" s="67">
         <v>2</v>
       </c>
@@ -5817,11 +5840,11 @@
       <c r="AN17" s="69"/>
       <c r="AO17" s="71"/>
       <c r="AP17" s="70"/>
-      <c r="AV17" s="160" t="s">
+      <c r="AV17" s="178" t="s">
         <v>62</v>
       </c>
-      <c r="AW17" s="160"/>
-      <c r="AX17" s="160"/>
+      <c r="AW17" s="178"/>
+      <c r="AX17" s="178"/>
       <c r="AY17" s="67">
         <v>2</v>
       </c>
@@ -5842,11 +5865,11 @@
       <c r="BL17" s="69"/>
       <c r="BM17" s="71"/>
       <c r="BN17" s="69"/>
-      <c r="BU17" s="159" t="s">
+      <c r="BU17" s="177" t="s">
         <v>62</v>
       </c>
-      <c r="BV17" s="159"/>
-      <c r="BW17" s="159"/>
+      <c r="BV17" s="177"/>
+      <c r="BW17" s="177"/>
       <c r="BX17" s="67">
         <v>2</v>
       </c>
@@ -5892,11 +5915,11 @@
       <c r="Q18" s="69"/>
       <c r="R18" s="69"/>
       <c r="S18" s="70"/>
-      <c r="X18" s="182" t="s">
+      <c r="X18" s="179" t="s">
         <v>63</v>
       </c>
-      <c r="Y18" s="182"/>
-      <c r="Z18" s="182"/>
+      <c r="Y18" s="179"/>
+      <c r="Z18" s="179"/>
       <c r="AA18" s="67">
         <v>3</v>
       </c>
@@ -5917,11 +5940,11 @@
       <c r="AN18" s="69"/>
       <c r="AO18" s="69"/>
       <c r="AP18" s="70"/>
-      <c r="AV18" s="182" t="s">
+      <c r="AV18" s="179" t="s">
         <v>63</v>
       </c>
-      <c r="AW18" s="182"/>
-      <c r="AX18" s="182"/>
+      <c r="AW18" s="179"/>
+      <c r="AX18" s="179"/>
       <c r="AY18" s="67">
         <v>3</v>
       </c>
@@ -5942,11 +5965,11 @@
       <c r="BL18" s="69"/>
       <c r="BM18" s="69"/>
       <c r="BN18" s="69"/>
-      <c r="BU18" s="160" t="s">
+      <c r="BU18" s="178" t="s">
         <v>63</v>
       </c>
-      <c r="BV18" s="160"/>
-      <c r="BW18" s="160"/>
+      <c r="BV18" s="178"/>
+      <c r="BW18" s="178"/>
       <c r="BX18" s="67">
         <v>3</v>
       </c>
@@ -6843,16 +6866,16 @@
       <c r="CM31" s="60"/>
     </row>
     <row r="32" spans="3:91" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="Q32" s="156" t="s">
+      <c r="Q32" s="164" t="s">
         <v>76</v>
       </c>
-      <c r="R32" s="157"/>
-      <c r="S32" s="158"/>
-      <c r="BL32" s="154" t="s">
+      <c r="R32" s="165"/>
+      <c r="S32" s="166"/>
+      <c r="BL32" s="190" t="s">
         <v>104</v>
       </c>
-      <c r="BM32" s="155"/>
-      <c r="BN32" s="155"/>
+      <c r="BM32" s="191"/>
+      <c r="BN32" s="191"/>
     </row>
     <row r="36" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C36" s="53"/>
@@ -6897,15 +6920,15 @@
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
-      <c r="G38" s="99" t="s">
+      <c r="G38" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="99"/>
-      <c r="I38" s="99"/>
-      <c r="J38" s="99"/>
-      <c r="K38" s="99"/>
-      <c r="L38" s="99"/>
-      <c r="M38" s="99"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="83"/>
+      <c r="J38" s="83"/>
+      <c r="K38" s="83"/>
+      <c r="L38" s="83"/>
+      <c r="M38" s="83"/>
       <c r="N38" s="18"/>
       <c r="O38" s="18"/>
       <c r="P38" s="18"/>
@@ -6914,19 +6937,19 @@
       <c r="S38" s="19"/>
     </row>
     <row r="39" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C39" s="107" t="s">
+      <c r="C39" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="108"/>
-      <c r="E39" s="108"/>
-      <c r="F39" s="108"/>
-      <c r="G39" s="99"/>
-      <c r="H39" s="99"/>
-      <c r="I39" s="99"/>
-      <c r="J39" s="99"/>
-      <c r="K39" s="99"/>
-      <c r="L39" s="99"/>
-      <c r="M39" s="99"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="83"/>
+      <c r="I39" s="83"/>
+      <c r="J39" s="83"/>
+      <c r="K39" s="83"/>
+      <c r="L39" s="83"/>
+      <c r="M39" s="83"/>
       <c r="N39" s="18"/>
       <c r="O39" s="18"/>
       <c r="P39" s="18"/>
@@ -6935,64 +6958,64 @@
       <c r="S39" s="19"/>
     </row>
     <row r="40" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C40" s="109"/>
-      <c r="D40" s="108"/>
-      <c r="E40" s="108"/>
-      <c r="F40" s="108"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="99"/>
-      <c r="I40" s="99"/>
-      <c r="J40" s="99"/>
-      <c r="K40" s="99"/>
-      <c r="L40" s="99"/>
-      <c r="M40" s="99"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="83"/>
+      <c r="I40" s="83"/>
+      <c r="J40" s="83"/>
+      <c r="K40" s="83"/>
+      <c r="L40" s="83"/>
+      <c r="M40" s="83"/>
       <c r="N40" s="18"/>
-      <c r="O40" s="101" t="s">
+      <c r="O40" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="P40" s="102"/>
+      <c r="P40" s="86"/>
       <c r="Q40" s="18"/>
       <c r="R40" s="19"/>
       <c r="S40" s="19"/>
     </row>
     <row r="41" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C41" s="110" t="s">
+      <c r="C41" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="110"/>
-      <c r="E41" s="110"/>
-      <c r="F41" s="110"/>
-      <c r="G41" s="99"/>
-      <c r="H41" s="99"/>
-      <c r="I41" s="99"/>
-      <c r="J41" s="99"/>
-      <c r="K41" s="99"/>
-      <c r="L41" s="99"/>
-      <c r="M41" s="99"/>
+      <c r="D41" s="94"/>
+      <c r="E41" s="94"/>
+      <c r="F41" s="94"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="83"/>
+      <c r="J41" s="83"/>
+      <c r="K41" s="83"/>
+      <c r="L41" s="83"/>
+      <c r="M41" s="83"/>
       <c r="N41" s="18"/>
-      <c r="O41" s="103"/>
-      <c r="P41" s="104"/>
+      <c r="O41" s="87"/>
+      <c r="P41" s="88"/>
       <c r="Q41" s="18"/>
       <c r="R41" s="19"/>
       <c r="S41" s="19"/>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C42" s="110" t="s">
+      <c r="C42" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="110"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="110"/>
-      <c r="G42" s="99"/>
-      <c r="H42" s="99"/>
-      <c r="I42" s="99"/>
-      <c r="J42" s="99"/>
-      <c r="K42" s="99"/>
-      <c r="L42" s="99"/>
-      <c r="M42" s="99"/>
+      <c r="D42" s="94"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="94"/>
+      <c r="G42" s="83"/>
+      <c r="H42" s="83"/>
+      <c r="I42" s="83"/>
+      <c r="J42" s="83"/>
+      <c r="K42" s="83"/>
+      <c r="L42" s="83"/>
+      <c r="M42" s="83"/>
       <c r="N42" s="18"/>
-      <c r="O42" s="105"/>
-      <c r="P42" s="106"/>
+      <c r="O42" s="89"/>
+      <c r="P42" s="90"/>
       <c r="Q42" s="18"/>
       <c r="R42" s="19"/>
       <c r="S42" s="19"/>
@@ -7002,13 +7025,13 @@
       <c r="D43" s="21"/>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
-      <c r="G43" s="100"/>
-      <c r="H43" s="100"/>
-      <c r="I43" s="100"/>
-      <c r="J43" s="100"/>
-      <c r="K43" s="100"/>
-      <c r="L43" s="100"/>
-      <c r="M43" s="100"/>
+      <c r="G43" s="84"/>
+      <c r="H43" s="84"/>
+      <c r="I43" s="84"/>
+      <c r="J43" s="84"/>
+      <c r="K43" s="84"/>
+      <c r="L43" s="84"/>
+      <c r="M43" s="84"/>
       <c r="N43" s="21"/>
       <c r="O43" s="21"/>
       <c r="P43" s="21"/>
@@ -7018,13 +7041,77 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="C2:D8"/>
-    <mergeCell ref="E2:S8"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="BL32:BN32"/>
+    <mergeCell ref="CK15:CM15"/>
+    <mergeCell ref="BU16:BW16"/>
+    <mergeCell ref="CK16:CM16"/>
+    <mergeCell ref="BU17:BW17"/>
+    <mergeCell ref="BU18:BW18"/>
+    <mergeCell ref="CC15:CF16"/>
+    <mergeCell ref="CG15:CH16"/>
+    <mergeCell ref="CI15:CJ16"/>
+    <mergeCell ref="BY15:BZ16"/>
+    <mergeCell ref="CA15:CA16"/>
+    <mergeCell ref="CB15:CB16"/>
+    <mergeCell ref="BL15:BN15"/>
+    <mergeCell ref="BL14:BN14"/>
+    <mergeCell ref="CG13:CL13"/>
+    <mergeCell ref="BY14:BZ14"/>
+    <mergeCell ref="CC14:CF14"/>
+    <mergeCell ref="CG14:CH14"/>
+    <mergeCell ref="CI14:CJ14"/>
+    <mergeCell ref="CK14:CM14"/>
+    <mergeCell ref="AX13:AY13"/>
+    <mergeCell ref="AZ14:BA14"/>
+    <mergeCell ref="BD14:BG14"/>
+    <mergeCell ref="BH14:BI14"/>
+    <mergeCell ref="BJ14:BK14"/>
+    <mergeCell ref="BB14:BC14"/>
+    <mergeCell ref="BW13:BX13"/>
+    <mergeCell ref="BU15:BW15"/>
+    <mergeCell ref="BX15:BX16"/>
+    <mergeCell ref="AZ15:BA16"/>
+    <mergeCell ref="BD15:BG16"/>
+    <mergeCell ref="BH15:BI16"/>
+    <mergeCell ref="BJ15:BK16"/>
+    <mergeCell ref="BB15:BC16"/>
+    <mergeCell ref="AJ14:AK14"/>
+    <mergeCell ref="AV16:AX16"/>
+    <mergeCell ref="BL16:BN16"/>
+    <mergeCell ref="AV17:AX17"/>
+    <mergeCell ref="AV18:AX18"/>
+    <mergeCell ref="AN16:AP16"/>
+    <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="AV15:AX15"/>
+    <mergeCell ref="AY15:AY16"/>
+    <mergeCell ref="AJ13:AO13"/>
+    <mergeCell ref="AL15:AM16"/>
+    <mergeCell ref="AB15:AC16"/>
+    <mergeCell ref="AD15:AD16"/>
+    <mergeCell ref="AE15:AE16"/>
+    <mergeCell ref="AF15:AI16"/>
+    <mergeCell ref="AJ15:AK16"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AN15:AP15"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AL14:AM14"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="G15:H16"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="I15:L16"/>
+    <mergeCell ref="M15:N16"/>
+    <mergeCell ref="O15:P16"/>
     <mergeCell ref="O40:P42"/>
     <mergeCell ref="C41:F41"/>
     <mergeCell ref="C42:F42"/>
@@ -7041,77 +7128,13 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="O14:P14"/>
     <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="I15:L16"/>
-    <mergeCell ref="M15:N16"/>
-    <mergeCell ref="O15:P16"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="E15:F16"/>
-    <mergeCell ref="G15:H16"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="X17:Z17"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="AN16:AP16"/>
-    <mergeCell ref="AA15:AA16"/>
-    <mergeCell ref="AV15:AX15"/>
-    <mergeCell ref="AY15:AY16"/>
-    <mergeCell ref="AJ13:AO13"/>
-    <mergeCell ref="AL15:AM16"/>
-    <mergeCell ref="AB15:AC16"/>
-    <mergeCell ref="AD15:AD16"/>
-    <mergeCell ref="AE15:AE16"/>
-    <mergeCell ref="AF15:AI16"/>
-    <mergeCell ref="AJ15:AK16"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AN15:AP15"/>
-    <mergeCell ref="AN14:AP14"/>
-    <mergeCell ref="AL14:AM14"/>
-    <mergeCell ref="AJ14:AK14"/>
-    <mergeCell ref="AV16:AX16"/>
-    <mergeCell ref="BL16:BN16"/>
-    <mergeCell ref="AV17:AX17"/>
-    <mergeCell ref="AV18:AX18"/>
-    <mergeCell ref="BW13:BX13"/>
-    <mergeCell ref="BU15:BW15"/>
-    <mergeCell ref="BX15:BX16"/>
-    <mergeCell ref="AZ15:BA16"/>
-    <mergeCell ref="BD15:BG16"/>
-    <mergeCell ref="BH15:BI16"/>
-    <mergeCell ref="BJ15:BK16"/>
-    <mergeCell ref="AX13:AY13"/>
-    <mergeCell ref="AZ14:BA14"/>
-    <mergeCell ref="BD14:BG14"/>
-    <mergeCell ref="BH14:BI14"/>
-    <mergeCell ref="BJ14:BK14"/>
-    <mergeCell ref="CG13:CL13"/>
-    <mergeCell ref="BY14:BZ14"/>
-    <mergeCell ref="CC14:CF14"/>
-    <mergeCell ref="CG14:CH14"/>
-    <mergeCell ref="CI14:CJ14"/>
-    <mergeCell ref="CK14:CM14"/>
-    <mergeCell ref="BB14:BC14"/>
-    <mergeCell ref="BB15:BC16"/>
-    <mergeCell ref="BY15:BZ16"/>
-    <mergeCell ref="CA15:CA16"/>
-    <mergeCell ref="CB15:CB16"/>
-    <mergeCell ref="BL15:BN15"/>
-    <mergeCell ref="BL14:BN14"/>
-    <mergeCell ref="BL32:BN32"/>
-    <mergeCell ref="CK15:CM15"/>
-    <mergeCell ref="BU16:BW16"/>
-    <mergeCell ref="CK16:CM16"/>
-    <mergeCell ref="BU17:BW17"/>
-    <mergeCell ref="BU18:BW18"/>
-    <mergeCell ref="CC15:CF16"/>
-    <mergeCell ref="CG15:CH16"/>
-    <mergeCell ref="CI15:CJ16"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="C2:D8"/>
+    <mergeCell ref="E2:S8"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="N11:R11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7139,161 +7162,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J1" s="79" t="s">
+      <c r="J1" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="80"/>
-      <c r="L1" s="79" t="s">
+      <c r="K1" s="97"/>
+      <c r="L1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="80"/>
-      <c r="N1" s="83" t="s">
+      <c r="M1" s="97"/>
+      <c r="N1" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="78" t="s">
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="78"/>
+      <c r="S1" s="95"/>
     </row>
     <row r="2" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="93" t="s">
+      <c r="D2" s="101"/>
+      <c r="E2" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
     </row>
     <row r="3" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
     </row>
     <row r="4" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="87"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
     </row>
     <row r="5" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="87"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
     </row>
     <row r="6" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="87"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="94"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
+      <c r="P6" s="109"/>
+      <c r="Q6" s="109"/>
+      <c r="R6" s="109"/>
+      <c r="S6" s="109"/>
     </row>
     <row r="7" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="87"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="94"/>
-      <c r="S7" s="94"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="109"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="109"/>
+      <c r="P7" s="109"/>
+      <c r="Q7" s="109"/>
+      <c r="R7" s="109"/>
+      <c r="S7" s="109"/>
     </row>
     <row r="8" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="89"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="94"/>
-      <c r="S8" s="94"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="109"/>
+      <c r="Q8" s="109"/>
+      <c r="R8" s="109"/>
+      <c r="S8" s="109"/>
     </row>
     <row r="11" spans="3:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="23" t="s">
@@ -7302,25 +7325,25 @@
       <c r="D11" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="91" t="s">
+      <c r="E11" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="92"/>
-      <c r="G11" s="91" t="s">
+      <c r="F11" s="107"/>
+      <c r="G11" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="92"/>
-      <c r="I11" s="95" t="s">
+      <c r="H11" s="107"/>
+      <c r="I11" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="95"/>
-      <c r="N11" s="111" t="s">
+      <c r="J11" s="110"/>
+      <c r="N11" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="111"/>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="111"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="81"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="81"/>
       <c r="S11" s="27" t="s">
         <v>24</v>
       </c>
@@ -7341,18 +7364,18 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="183" t="s">
+      <c r="K13" s="175" t="s">
         <v>77</v>
       </c>
-      <c r="L13" s="183"/>
-      <c r="M13" s="184"/>
-      <c r="N13" s="111" t="s">
+      <c r="L13" s="175"/>
+      <c r="M13" s="176"/>
+      <c r="N13" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="O13" s="111"/>
-      <c r="P13" s="111"/>
-      <c r="Q13" s="111"/>
-      <c r="R13" s="111"/>
+      <c r="O13" s="81"/>
+      <c r="P13" s="81"/>
+      <c r="Q13" s="81"/>
+      <c r="R13" s="81"/>
       <c r="S13" s="27" t="s">
         <v>24</v>
       </c>
@@ -7361,87 +7384,87 @@
       <c r="D14" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="161" t="s">
+      <c r="E14" s="154" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="178"/>
-      <c r="G14" s="190"/>
-      <c r="H14" s="191"/>
-      <c r="I14" s="189" t="s">
+      <c r="F14" s="155"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="190"/>
-      <c r="K14" s="190"/>
-      <c r="L14" s="191"/>
-      <c r="M14" s="161" t="s">
+      <c r="J14" s="158"/>
+      <c r="K14" s="158"/>
+      <c r="L14" s="159"/>
+      <c r="M14" s="154" t="s">
         <v>68</v>
       </c>
-      <c r="N14" s="178"/>
-      <c r="O14" s="161" t="s">
+      <c r="N14" s="155"/>
+      <c r="O14" s="154" t="s">
         <v>69</v>
       </c>
-      <c r="P14" s="162"/>
-      <c r="Q14" s="178" t="s">
+      <c r="P14" s="156"/>
+      <c r="Q14" s="155" t="s">
         <v>72</v>
       </c>
-      <c r="R14" s="178"/>
-      <c r="S14" s="162"/>
+      <c r="R14" s="155"/>
+      <c r="S14" s="156"/>
     </row>
     <row r="15" spans="3:19" ht="21" x14ac:dyDescent="0.35">
       <c r="C15" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="171">
+      <c r="D15" s="167">
         <v>1</v>
       </c>
-      <c r="E15" s="167" t="s">
+      <c r="E15" s="169" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="173"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="168"/>
-      <c r="I15" s="167" t="s">
+      <c r="F15" s="170"/>
+      <c r="G15" s="170"/>
+      <c r="H15" s="171"/>
+      <c r="I15" s="169" t="s">
         <v>70</v>
       </c>
-      <c r="J15" s="173"/>
-      <c r="K15" s="173"/>
-      <c r="L15" s="168"/>
-      <c r="M15" s="167" t="s">
+      <c r="J15" s="170"/>
+      <c r="K15" s="170"/>
+      <c r="L15" s="171"/>
+      <c r="M15" s="169" t="s">
         <v>71</v>
       </c>
-      <c r="N15" s="168"/>
-      <c r="O15" s="167">
+      <c r="N15" s="171"/>
+      <c r="O15" s="169">
         <v>520000</v>
       </c>
-      <c r="P15" s="168"/>
-      <c r="Q15" s="156" t="s">
+      <c r="P15" s="171"/>
+      <c r="Q15" s="164" t="s">
         <v>74</v>
       </c>
-      <c r="R15" s="157"/>
-      <c r="S15" s="158"/>
+      <c r="R15" s="165"/>
+      <c r="S15" s="166"/>
     </row>
     <row r="16" spans="3:19" ht="21" x14ac:dyDescent="0.35">
       <c r="C16" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="172"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="174"/>
-      <c r="G16" s="174"/>
-      <c r="H16" s="170"/>
-      <c r="I16" s="169"/>
-      <c r="J16" s="174"/>
-      <c r="K16" s="174"/>
-      <c r="L16" s="170"/>
-      <c r="M16" s="169"/>
-      <c r="N16" s="170"/>
-      <c r="O16" s="169"/>
-      <c r="P16" s="170"/>
-      <c r="Q16" s="186" t="s">
+      <c r="D16" s="168"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="173"/>
+      <c r="H16" s="174"/>
+      <c r="I16" s="172"/>
+      <c r="J16" s="173"/>
+      <c r="K16" s="173"/>
+      <c r="L16" s="174"/>
+      <c r="M16" s="172"/>
+      <c r="N16" s="174"/>
+      <c r="O16" s="172"/>
+      <c r="P16" s="174"/>
+      <c r="Q16" s="161" t="s">
         <v>75</v>
       </c>
-      <c r="R16" s="187"/>
-      <c r="S16" s="188"/>
+      <c r="R16" s="162"/>
+      <c r="S16" s="163"/>
     </row>
     <row r="17" spans="3:19" ht="21" x14ac:dyDescent="0.35">
       <c r="C17" s="64" t="s">
@@ -7732,11 +7755,11 @@
       <c r="S31" s="60"/>
     </row>
     <row r="32" spans="3:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="Q32" s="156" t="s">
+      <c r="Q32" s="164" t="s">
         <v>76</v>
       </c>
-      <c r="R32" s="157"/>
-      <c r="S32" s="158"/>
+      <c r="R32" s="165"/>
+      <c r="S32" s="166"/>
     </row>
     <row r="36" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C36" s="53"/>
@@ -7781,15 +7804,15 @@
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
-      <c r="G38" s="99" t="s">
+      <c r="G38" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="99"/>
-      <c r="I38" s="99"/>
-      <c r="J38" s="99"/>
-      <c r="K38" s="99"/>
-      <c r="L38" s="99"/>
-      <c r="M38" s="99"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="83"/>
+      <c r="J38" s="83"/>
+      <c r="K38" s="83"/>
+      <c r="L38" s="83"/>
+      <c r="M38" s="83"/>
       <c r="N38" s="18"/>
       <c r="O38" s="18"/>
       <c r="P38" s="18"/>
@@ -7798,19 +7821,19 @@
       <c r="S38" s="19"/>
     </row>
     <row r="39" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C39" s="107" t="s">
+      <c r="C39" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="108"/>
-      <c r="E39" s="108"/>
-      <c r="F39" s="108"/>
-      <c r="G39" s="99"/>
-      <c r="H39" s="99"/>
-      <c r="I39" s="99"/>
-      <c r="J39" s="99"/>
-      <c r="K39" s="99"/>
-      <c r="L39" s="99"/>
-      <c r="M39" s="99"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="83"/>
+      <c r="I39" s="83"/>
+      <c r="J39" s="83"/>
+      <c r="K39" s="83"/>
+      <c r="L39" s="83"/>
+      <c r="M39" s="83"/>
       <c r="N39" s="18"/>
       <c r="O39" s="18"/>
       <c r="P39" s="18"/>
@@ -7819,64 +7842,64 @@
       <c r="S39" s="19"/>
     </row>
     <row r="40" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C40" s="109"/>
-      <c r="D40" s="108"/>
-      <c r="E40" s="108"/>
-      <c r="F40" s="108"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="99"/>
-      <c r="I40" s="99"/>
-      <c r="J40" s="99"/>
-      <c r="K40" s="99"/>
-      <c r="L40" s="99"/>
-      <c r="M40" s="99"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="83"/>
+      <c r="I40" s="83"/>
+      <c r="J40" s="83"/>
+      <c r="K40" s="83"/>
+      <c r="L40" s="83"/>
+      <c r="M40" s="83"/>
       <c r="N40" s="18"/>
-      <c r="O40" s="101" t="s">
+      <c r="O40" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="P40" s="102"/>
+      <c r="P40" s="86"/>
       <c r="Q40" s="18"/>
       <c r="R40" s="19"/>
       <c r="S40" s="19"/>
     </row>
     <row r="41" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C41" s="110" t="s">
+      <c r="C41" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="110"/>
-      <c r="E41" s="110"/>
-      <c r="F41" s="110"/>
-      <c r="G41" s="99"/>
-      <c r="H41" s="99"/>
-      <c r="I41" s="99"/>
-      <c r="J41" s="99"/>
-      <c r="K41" s="99"/>
-      <c r="L41" s="99"/>
-      <c r="M41" s="99"/>
+      <c r="D41" s="94"/>
+      <c r="E41" s="94"/>
+      <c r="F41" s="94"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="83"/>
+      <c r="J41" s="83"/>
+      <c r="K41" s="83"/>
+      <c r="L41" s="83"/>
+      <c r="M41" s="83"/>
       <c r="N41" s="18"/>
-      <c r="O41" s="103"/>
-      <c r="P41" s="104"/>
+      <c r="O41" s="87"/>
+      <c r="P41" s="88"/>
       <c r="Q41" s="18"/>
       <c r="R41" s="19"/>
       <c r="S41" s="19"/>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C42" s="110" t="s">
+      <c r="C42" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="110"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="110"/>
-      <c r="G42" s="99"/>
-      <c r="H42" s="99"/>
-      <c r="I42" s="99"/>
-      <c r="J42" s="99"/>
-      <c r="K42" s="99"/>
-      <c r="L42" s="99"/>
-      <c r="M42" s="99"/>
+      <c r="D42" s="94"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="94"/>
+      <c r="G42" s="83"/>
+      <c r="H42" s="83"/>
+      <c r="I42" s="83"/>
+      <c r="J42" s="83"/>
+      <c r="K42" s="83"/>
+      <c r="L42" s="83"/>
+      <c r="M42" s="83"/>
       <c r="N42" s="18"/>
-      <c r="O42" s="105"/>
-      <c r="P42" s="106"/>
+      <c r="O42" s="89"/>
+      <c r="P42" s="90"/>
       <c r="Q42" s="18"/>
       <c r="R42" s="19"/>
       <c r="S42" s="19"/>
@@ -7886,13 +7909,13 @@
       <c r="D43" s="21"/>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
-      <c r="G43" s="100"/>
-      <c r="H43" s="100"/>
-      <c r="I43" s="100"/>
-      <c r="J43" s="100"/>
-      <c r="K43" s="100"/>
-      <c r="L43" s="100"/>
-      <c r="M43" s="100"/>
+      <c r="G43" s="84"/>
+      <c r="H43" s="84"/>
+      <c r="I43" s="84"/>
+      <c r="J43" s="84"/>
+      <c r="K43" s="84"/>
+      <c r="L43" s="84"/>
+      <c r="M43" s="84"/>
       <c r="N43" s="21"/>
       <c r="O43" s="21"/>
       <c r="P43" s="21"/>
@@ -7902,24 +7925,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="C2:D8"/>
-    <mergeCell ref="E2:S8"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:S14"/>
     <mergeCell ref="Q15:S15"/>
     <mergeCell ref="Q16:S16"/>
     <mergeCell ref="Q32:S32"/>
@@ -7933,6 +7938,24 @@
     <mergeCell ref="I15:L16"/>
     <mergeCell ref="M15:N16"/>
     <mergeCell ref="O15:P16"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="C2:D8"/>
+    <mergeCell ref="E2:S8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
